--- a/Results/Categorization/dp-partial-ner-elmo-money.xlsx
+++ b/Results/Categorization/dp-partial-ner-elmo-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1832">
   <si>
     <t>id</t>
   </si>
@@ -4033,385 +4033,430 @@
     <t>SERVICE|FOOD|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE</t>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|SERVICE|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
+    <t>FOOD|PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|FOOD|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>FOOD|SERVICE|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|AMBIENCE</t>
+    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+    <t>|place</t>
   </si>
   <si>
     <t>food|portions</t>
   </si>
   <si>
-    <t>food|times</t>
-  </si>
-  <si>
     <t>confit|duck</t>
   </si>
   <si>
     <t>list|wine|values</t>
   </si>
   <si>
-    <t>cart|attendant|lotus|leaf</t>
-  </si>
-  <si>
-    <t>pork|chow|family</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>cart|attendant|lotus|leaf|rice|rice</t>
+  </si>
+  <si>
+    <t>mai|pork|fun|chow|family|shu</t>
+  </si>
+  <si>
+    <t>|price</t>
   </si>
   <si>
     <t>service|perfection</t>
   </si>
   <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>stuff|food|fusion|thing</t>
-  </si>
-  <si>
-    <t>thing|chicken|puree</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>effort</t>
-  </si>
-  <si>
-    <t>list|sake</t>
+    <t>|visit</t>
+  </si>
+  <si>
+    <t>bit|stuff|food|fusion</t>
+  </si>
+  <si>
+    <t>|chicken|puree</t>
+  </si>
+  <si>
+    <t>|salt|bit</t>
+  </si>
+  <si>
+    <t>effort|tho</t>
+  </si>
+  <si>
+    <t>|list|sake</t>
   </si>
   <si>
     <t>roll|spicy|tempura|tuna|appetizer|rock|shrimp</t>
   </si>
   <si>
+    <t>bit|service</t>
+  </si>
+  <si>
     <t>taste|mouth|service</t>
   </si>
   <si>
-    <t>self-respect</t>
+    <t>waiter|bit|self-respect</t>
   </si>
   <si>
     <t>notch|service</t>
   </si>
   <si>
-    <t>sushi|restaurant|urchin|sushi</t>
-  </si>
-  <si>
-    <t>ration</t>
+    <t>sushi|restaurant|sea|urchin|sushi</t>
+  </si>
+  <si>
+    <t>rice|ration</t>
   </si>
   <si>
     <t>advanatage|half|price|sushi|deal</t>
   </si>
   <si>
-    <t>food|impecable</t>
+    <t>|food|impecable</t>
   </si>
   <si>
     <t>menu|prix|fixe|penny</t>
   </si>
   <si>
-    <t>food|$6</t>
+    <t>food|$6!-</t>
   </si>
   <si>
     <t>somosas|chai|chole|dhosas|dhal</t>
@@ -4420,10 +4465,13 @@
     <t>service|varys</t>
   </si>
   <si>
+    <t>|food</t>
+  </si>
+  <si>
     <t>ambience|lunch|conversation</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
+    <t>river|idea|top|view|chart|house</t>
   </si>
   <si>
     <t>service|food|price|beginning</t>
@@ -4432,13 +4480,13 @@
     <t>dessert|lava|cake</t>
   </si>
   <si>
-    <t>bistro|path</t>
-  </si>
-  <si>
-    <t>desserts|soup|food</t>
-  </si>
-  <si>
-    <t>ambience|food|trip|world</t>
+    <t>|bistro|path</t>
+  </si>
+  <si>
+    <t>desserts|soup|food|way</t>
+  </si>
+  <si>
+    <t>ambience|food|companion|trip|world</t>
   </si>
   <si>
     <t>pizza|cheese</t>
@@ -4462,10 +4510,10 @@
     <t>shrimp|wife</t>
   </si>
   <si>
-    <t>signs|menus|food|waitstaff</t>
-  </si>
-  <si>
-    <t>leon|fare|bistro|village|specials|atmosphere</t>
+    <t>|signs|menus|food|waitstaff</t>
+  </si>
+  <si>
+    <t>leon|fare|bistro|village|specials|gem|atmosphere|hip</t>
   </si>
   <si>
     <t>wife|staff</t>
@@ -4477,13 +4525,13 @@
     <t>service|decor|food|portions</t>
   </si>
   <si>
-    <t>point</t>
+    <t>hostess|point</t>
   </si>
   <si>
     <t>oily|food</t>
   </si>
   <si>
-    <t>food|wine|times|place|service</t>
+    <t>food|wine|place|service</t>
   </si>
   <si>
     <t>wait|trouble</t>
@@ -4492,19 +4540,34 @@
     <t>glass|wine</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>|pizza</t>
+  </si>
+  <si>
+    <t>pizza|way</t>
+  </si>
+  <si>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>lunch|reviews</t>
   </si>
   <si>
-    <t>sauce|flavor|food</t>
+    <t>|sauce|flavor|food</t>
+  </si>
+  <si>
+    <t>waitress|food</t>
   </si>
   <si>
     <t>pizza|service</t>
   </si>
   <si>
-    <t>sushi|hands</t>
+    <t>|wait</t>
+  </si>
+  <si>
+    <t>block|end</t>
+  </si>
+  <si>
+    <t>sushi|city|hands</t>
   </si>
   <si>
     <t>food|place</t>
@@ -4516,13 +4579,13 @@
     <t>variety|menu</t>
   </si>
   <si>
-    <t>dumplings|section</t>
+    <t>|dumplings|lot|section</t>
   </si>
   <si>
     <t>sashimi|rolls</t>
   </si>
   <si>
-    <t>tuna</t>
+    <t>|tuna</t>
   </si>
   <si>
     <t>terrace|garden</t>
@@ -4531,7 +4594,7 @@
     <t>food|service</t>
   </si>
   <si>
-    <t>tartare|steak</t>
+    <t>bet|tartare|steak</t>
   </si>
   <si>
     <t>restaurant|kitchen|part</t>
@@ -4540,10 +4603,10 @@
     <t>selection|wine|value|price|champagne|house</t>
   </si>
   <si>
-    <t>vibe|food</t>
-  </si>
-  <si>
-    <t>bread|tastes|pizza|pizza|toppings</t>
+    <t>vibe|food|bit</t>
+  </si>
+  <si>
+    <t>bread|tastes|pizza|pizza|toppings|nyc</t>
   </si>
   <si>
     <t>neighborhood|food</t>
@@ -4552,22 +4615,22 @@
     <t>setting|service|occasion</t>
   </si>
   <si>
-    <t>roll|scallop</t>
-  </si>
-  <si>
-    <t>moules|ravioli</t>
-  </si>
-  <si>
-    <t>maitre</t>
-  </si>
-  <si>
-    <t>dessert|$8.00...just</t>
-  </si>
-  <si>
-    <t>drinks</t>
-  </si>
-  <si>
-    <t>specials</t>
+    <t>|roll|scallop</t>
+  </si>
+  <si>
+    <t>moules|ravioli|lobster</t>
+  </si>
+  <si>
+    <t>d'|maitre</t>
+  </si>
+  <si>
+    <t>|dessert|$8.00!-</t>
+  </si>
+  <si>
+    <t>|drinks</t>
+  </si>
+  <si>
+    <t>chef|specials</t>
   </si>
   <si>
     <t>lounge</t>
@@ -4579,7 +4642,7 @@
     <t>beers|wines</t>
   </si>
   <si>
-    <t>table|bathroom|dinner|orders|toilet</t>
+    <t>waitress|table|bathroom|dinner|orders|toilet</t>
   </si>
   <si>
     <t>service|food</t>
@@ -4591,37 +4654,40 @@
     <t>potatoes|tuna|wasabe</t>
   </si>
   <si>
+    <t>atmosphere|avenue</t>
+  </si>
+  <si>
     <t>pizza|mozzarella|cheese|pizzaria</t>
   </si>
   <si>
     <t>selection|appetizer|complaints</t>
   </si>
   <si>
-    <t>staff|business</t>
-  </si>
-  <si>
-    <t>food|restaurant</t>
+    <t>pie|uws|staff|business</t>
+  </si>
+  <si>
+    <t>salad|food|restaurant</t>
   </si>
   <si>
     <t>quality|dining|restaurant</t>
   </si>
   <si>
-    <t>cheeseburger|excpetiona|chicken|service</t>
+    <t>|cheeseburger|excpetiona|chicken|pot|service</t>
   </si>
   <si>
     <t>food|options|rule</t>
   </si>
   <si>
-    <t>roll|heaven</t>
+    <t>|roll|heaven</t>
   </si>
   <si>
     <t>sake|menu</t>
   </si>
   <si>
-    <t>roll|teriyaki</t>
-  </si>
-  <si>
-    <t>food|experience</t>
+    <t>|roll|teriyaki</t>
+  </si>
+  <si>
+    <t>food|experience|fat</t>
   </si>
   <si>
     <t>selection|wine|list</t>
@@ -4633,7 +4699,10 @@
     <t>decor|boths|side|side|hall</t>
   </si>
   <si>
-    <t>band|atmosphere|jazz</t>
+    <t>|band|atmosphere|jazz</t>
+  </si>
+  <si>
+    <t>meal|nyc</t>
   </si>
   <si>
     <t>food|diamond|balance|herbs|tomatoes|homemade</t>
@@ -4645,34 +4714,40 @@
     <t>husband|tortelini|beers|food|dish</t>
   </si>
   <si>
+    <t>|bagel</t>
+  </si>
+  <si>
     <t>workers|bagel|cream|cheese</t>
   </si>
   <si>
-    <t>frist|cafe|food|service</t>
-  </si>
-  <si>
-    <t>roll|mayo|mayo</t>
-  </si>
-  <si>
-    <t>guests|pizza|fish|chips</t>
-  </si>
-  <si>
-    <t>cafe|service|food</t>
-  </si>
-  <si>
-    <t>chow|chow|oily</t>
+    <t>frist|cafe|st.|food|service</t>
+  </si>
+  <si>
+    <t>roll|lobster|mayo|mayo</t>
+  </si>
+  <si>
+    <t>guests|salad|pizza|fish|chips|fe</t>
+  </si>
+  <si>
+    <t>cafe|st.|service|food</t>
+  </si>
+  <si>
+    <t>|staff</t>
+  </si>
+  <si>
+    <t>chow|fun|chow|oily</t>
   </si>
   <si>
     <t>dumplings|pancakes</t>
   </si>
   <si>
-    <t>thing|service|restaurant</t>
-  </si>
-  <si>
-    <t>sushi|tuna|average|rolls|inside|flavor</t>
-  </si>
-  <si>
-    <t>penang|everything</t>
+    <t>service|restaurant</t>
+  </si>
+  <si>
+    <t>|sushi|tuna|average|rolls|inside|flavor</t>
+  </si>
+  <si>
+    <t>penang|pad</t>
   </si>
   <si>
     <t>price|service</t>
@@ -4681,96 +4756,105 @@
     <t>restaurant|food|course</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>fish|pam</t>
+  </si>
+  <si>
+    <t>vibe|lots</t>
+  </si>
+  <si>
+    <t>|ingredients</t>
+  </si>
+  <si>
+    <t>|roll|spicy|tuna</t>
+  </si>
+  <si>
+    <t>yellowtail</t>
+  </si>
+  <si>
+    <t>choices|food|$18!-</t>
+  </si>
+  <si>
+    <t>price|food|service</t>
+  </si>
+  <si>
+    <t>price|$3-6!-</t>
+  </si>
+  <si>
+    <t>takeout|tupperware|quality</t>
+  </si>
+  <si>
+    <t>salad|caesar</t>
+  </si>
+  <si>
+    <t>pasta|dish</t>
+  </si>
+  <si>
+    <t>tiramisu|chocolate|cake</t>
+  </si>
+  <si>
+    <t>visit|manager</t>
+  </si>
+  <si>
+    <t>|dishes|wine|atmosphere</t>
+  </si>
+  <si>
+    <t>place|pizza|pizza</t>
+  </si>
+  <si>
+    <t>mine|goat|cheese|panchetta|raddichio|kind</t>
+  </si>
+  <si>
+    <t>friend|mushroom|pizza</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>service|people</t>
+  </si>
+  <si>
+    <t>|tuna|rubber|hanger</t>
+  </si>
+  <si>
+    <t>service|ambience</t>
+  </si>
+  <si>
+    <t>dish|mignon</t>
+  </si>
+  <si>
+    <t>|section|menu</t>
+  </si>
+  <si>
+    <t>place|spot</t>
+  </si>
+  <si>
+    <t>|service|pizza|wine|wine|area|backyard|dining|place</t>
+  </si>
+  <si>
+    <t>|menu|restaurant</t>
+  </si>
+  <si>
+    <t>|wines|$70!-|$30!-</t>
+  </si>
+  <si>
+    <t>service|joint|price|category</t>
+  </si>
+  <si>
+    <t>service|grazie</t>
+  </si>
+  <si>
+    <t>factor|food</t>
+  </si>
+  <si>
+    <t>rosemary|flavoring|orange</t>
   </si>
   <si>
     <t>fish</t>
   </si>
   <si>
-    <t>vibe|lots</t>
-  </si>
-  <si>
-    <t>roll|spicy|tuna</t>
-  </si>
-  <si>
-    <t>yellowtail</t>
-  </si>
-  <si>
-    <t>choices|food|$18</t>
-  </si>
-  <si>
-    <t>price|food|service</t>
-  </si>
-  <si>
-    <t>price|$3-6</t>
-  </si>
-  <si>
-    <t>takeout|tupperware|quality</t>
-  </si>
-  <si>
-    <t>caesar</t>
-  </si>
-  <si>
-    <t>pasta|dish</t>
-  </si>
-  <si>
-    <t>tiramisu|chocolate|cake</t>
-  </si>
-  <si>
-    <t>dishes|wine|atmosphere</t>
-  </si>
-  <si>
-    <t>place|pizza|pizza</t>
-  </si>
-  <si>
-    <t>mine|goat|cheese|panchetta|raddichio|kind</t>
-  </si>
-  <si>
-    <t>friend|mushroom|pizza</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>service|people</t>
-  </si>
-  <si>
-    <t>tuna|hanger</t>
-  </si>
-  <si>
-    <t>service|ambience</t>
-  </si>
-  <si>
-    <t>dish|mignon</t>
-  </si>
-  <si>
-    <t>section|menu|nothing</t>
-  </si>
-  <si>
-    <t>place|spot</t>
-  </si>
-  <si>
-    <t>service|pizza|wine|wine|area|backyard|dining|place</t>
-  </si>
-  <si>
-    <t>menu|restaurant</t>
-  </si>
-  <si>
-    <t>wines|$70+</t>
-  </si>
-  <si>
-    <t>service|joint|price|category</t>
-  </si>
-  <si>
-    <t>service|grazie</t>
-  </si>
-  <si>
-    <t>factor|food</t>
-  </si>
-  <si>
-    <t>rosemary|flavoring|orange</t>
-  </si>
-  <si>
     <t>place|staff|wait</t>
   </si>
   <si>
@@ -4783,7 +4867,7 @@
     <t>tuna|tartar|appetizer</t>
   </si>
   <si>
-    <t>family|pizzeria|owners|pizza|blows|families|receipies</t>
+    <t>family|pizzeria|owners|pizza|fornino|blows|families|receipies</t>
   </si>
   <si>
     <t>place|service</t>
@@ -4804,15 +4888,24 @@
     <t>service|staff</t>
   </si>
   <si>
-    <t>service|place|occassion</t>
+    <t>service|place|date|occassion</t>
   </si>
   <si>
     <t>food|menu|price|price|allergies|prixe|fixe|tasting</t>
   </si>
   <si>
+    <t>place|lot|fun</t>
+  </si>
+  <si>
     <t>experience</t>
   </si>
   <si>
+    <t>drinks|way</t>
+  </si>
+  <si>
+    <t>|service</t>
+  </si>
+  <si>
     <t>delivery</t>
   </si>
   <si>
@@ -4825,76 +4918,82 @@
     <t>ambience|service</t>
   </si>
   <si>
-    <t>nothing|atmosphere|establishment</t>
+    <t>|atmosphere|establishment</t>
+  </si>
+  <si>
+    <t>|owner|staff</t>
   </si>
   <si>
     <t>prices|quality</t>
   </si>
   <si>
-    <t>trattoria</t>
-  </si>
-  <si>
-    <t>prices|gods|secret</t>
-  </si>
-  <si>
-    <t>room|secret</t>
-  </si>
-  <si>
-    <t>everytime|food|service|value</t>
-  </si>
-  <si>
-    <t>dessert|bill|chance|order</t>
+    <t>trattoria|top</t>
+  </si>
+  <si>
+    <t>|prices|gods|secret</t>
+  </si>
+  <si>
+    <t>|room|secret</t>
+  </si>
+  <si>
+    <t>food|service|value</t>
+  </si>
+  <si>
+    <t>hostess|waitress</t>
+  </si>
+  <si>
+    <t>dessert|waitress|bill|chance|order</t>
   </si>
   <si>
     <t>place|food</t>
   </si>
   <si>
+    <t>|dishes</t>
+  </si>
+  <si>
     <t>decor|service</t>
   </si>
   <si>
-    <t>times|service</t>
-  </si>
-  <si>
-    <t>group|times</t>
+    <t>svc|group|bit|esp</t>
   </si>
   <si>
     <t>prices</t>
   </si>
   <si>
-    <t>sandwiches|anything|chips|side|$7)</t>
+    <t>sandwiches|chips|side|$7!-</t>
   </si>
   <si>
     <t>experience|desk|atmosphere</t>
   </si>
   <si>
-    <t>cigar|staff</t>
-  </si>
-  <si>
-    <t>service|ambience|outing|group</t>
-  </si>
-  <si>
-    <t>fallback|prices|restaurant</t>
+    <t>bar|cigar|staff|patroon</t>
+  </si>
+  <si>
+    <t>service|ambience|date|outing|group</t>
+  </si>
+  <si>
+    <t>|fallback|prices|restaurant</t>
   </si>
   <si>
     <t>seafood|prices</t>
   </si>
   <si>
-    <t>sandwich|price|$24</t>
-  </si>
-  <si>
-    <t>occassion|sort|candle</t>
-  </si>
-  <si>
-    <t>mark</t>
+    <t>lobster|sandwich|price|$24!-</t>
+  </si>
+  <si>
+    <t>|occassion|sort|candle</t>
+  </si>
+  <si>
+    <t>waiter|mark</t>
   </si>
   <si>
     <t>food|waiters</t>
   </si>
   <si>
-    <t>plate|cheese|bargain|delight|$10.</t>
-  </si>
-  <si>
-    <t>list|wine</t>
+    <t>plate|cheese|bargain|delight|$10!-</t>
+  </si>
+  <si>
+    <t>|list|wine</t>
   </si>
   <si>
     <t>atmosphere|hesititate</t>
@@ -4903,34 +5002,31 @@
     <t>food|deal|place|self</t>
   </si>
   <si>
-    <t>town</t>
-  </si>
-  <si>
-    <t>dont|cafe</t>
-  </si>
-  <si>
-    <t>service|people|thing</t>
-  </si>
-  <si>
-    <t>things|thing|tips</t>
-  </si>
-  <si>
-    <t>model/waitress</t>
+    <t>|town</t>
+  </si>
+  <si>
+    <t>|dont|cafe</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>tip|model/waitress|manager</t>
   </si>
   <si>
     <t>staff|cafe|wish|place</t>
   </si>
   <si>
-    <t>ambience|prices|food|fact</t>
+    <t>ambience|prices|fun|food|top|fact</t>
   </si>
   <si>
     <t>experience|customer|service|restaurant</t>
   </si>
   <si>
-    <t>gentleman|table|smile|order</t>
-  </si>
-  <si>
-    <t>reservations|times|name</t>
+    <t>gentleman|manager|table|smile|order</t>
+  </si>
+  <si>
+    <t>reservations|hostess|name</t>
   </si>
   <si>
     <t>weather|table|snag</t>
@@ -4939,16 +5035,22 @@
     <t>staff|bathroom</t>
   </si>
   <si>
-    <t>patrons|closing</t>
+    <t>|patrons|closing</t>
   </si>
   <si>
     <t>staff|company|meal</t>
   </si>
   <si>
+    <t>|patio</t>
+  </si>
+  <si>
+    <t>service|bit</t>
+  </si>
+  <si>
     <t>area|garden|herb</t>
   </si>
   <si>
-    <t>place|points|money.</t>
+    <t>place|points</t>
   </si>
   <si>
     <t>crowd</t>
@@ -4957,13 +5059,13 @@
     <t>price|pizzas</t>
   </si>
   <si>
-    <t>money|guys|outta|money</t>
+    <t>waiter|money|guys|outta</t>
   </si>
   <si>
     <t>staff|wait</t>
   </si>
   <si>
-    <t>sandwiches</t>
+    <t>|sandwiches</t>
   </si>
   <si>
     <t>room|clerks|style|substance|folks</t>
@@ -4972,19 +5074,16 @@
     <t>lawns</t>
   </si>
   <si>
-    <t>anything|service</t>
-  </si>
-  <si>
     <t>place|prices</t>
   </si>
   <si>
-    <t>sandwich|cheese</t>
-  </si>
-  <si>
-    <t>music|isnt</t>
-  </si>
-  <si>
-    <t>atmoshere</t>
+    <t>|sandwich|cheese|manager</t>
+  </si>
+  <si>
+    <t>music|isnt|100 dollar!-</t>
+  </si>
+  <si>
+    <t>atmoshere|bit</t>
   </si>
   <si>
     <t>crew|staff|staff</t>
@@ -4993,34 +5092,37 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>staff|wait|part|beautification|she's-way-cuter-than-me-that-b@#$*</t>
-  </si>
-  <si>
-    <t>part|atmosphere</t>
-  </si>
-  <si>
-    <t>shanty|vanilla|setting|music|mmmm|$8.50</t>
-  </si>
-  <si>
-    <t>taste|music|lady</t>
-  </si>
-  <si>
-    <t>fact|prices</t>
+    <t>staff|wait|part|beautification|fun|way|way|$*!-</t>
+  </si>
+  <si>
+    <t>part|atmosphere|ls|bts</t>
+  </si>
+  <si>
+    <t>shanty|vanilla|setting|music|mmmm|$8.50!-</t>
+  </si>
+  <si>
+    <t>taste|music|dj|lady</t>
+  </si>
+  <si>
+    <t>location|fact|prices</t>
   </si>
   <si>
     <t>feature|terrace</t>
   </si>
   <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>atmosphere|wait|alternative|tables</t>
+    <t>|setting</t>
+  </si>
+  <si>
+    <t>rest|sum</t>
+  </si>
+  <si>
+    <t>sum|atmosphere|wait|gig|alternative|tables</t>
   </si>
   <si>
     <t>service|atmosphere</t>
   </si>
   <si>
-    <t>decor|prices|place</t>
+    <t>decor|prices|place|city</t>
   </si>
   <si>
     <t>management</t>
@@ -5047,10 +5149,7 @@
     <t>measures|liquers|quibbles|bill</t>
   </si>
   <si>
-    <t>restaurant|gimmick|theme</t>
-  </si>
-  <si>
-    <t>thing</t>
+    <t>|restaurant|nyc|gimmick|theme</t>
   </si>
   <si>
     <t>atomosphere|tables</t>
@@ -5062,16 +5161,16 @@
     <t>ceiling|room|dining</t>
   </si>
   <si>
-    <t>place|expectations|money.</t>
+    <t>place|expectations</t>
   </si>
   <si>
     <t>food|wines|selecion|prices</t>
   </si>
   <si>
-    <t>ravioli|everything</t>
-  </si>
-  <si>
-    <t>food|draw</t>
+    <t>ravioli|bit</t>
+  </si>
+  <si>
+    <t>|food|draw</t>
   </si>
   <si>
     <t>design|atmosphere</t>
@@ -5080,7 +5179,7 @@
     <t>bottles|wine</t>
   </si>
   <si>
-    <t>opera|everything|jukebox|strokes</t>
+    <t>|opera|jukebox|strokes</t>
   </si>
   <si>
     <t>drinks|half</t>
@@ -5095,13 +5194,16 @@
     <t>indoor</t>
   </si>
   <si>
+    <t>|decor</t>
+  </si>
+  <si>
     <t>food|prices</t>
   </si>
   <si>
     <t>food|tasting|prices|prices</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>music|food|prices|prices|service</t>
@@ -5113,7 +5215,7 @@
     <t>decor|restaurant|food|staff|manhattanite|side|west|prices|clientele|clientele</t>
   </si>
   <si>
-    <t>restaurants|food|wait-staff|service|diner|management</t>
+    <t>restaurants|uws|food|wait-staff|service|diner|management</t>
   </si>
   <si>
     <t>side|service|food</t>
@@ -5125,13 +5227,13 @@
     <t>food|decor|prices|prices</t>
   </si>
   <si>
-    <t>sushi|$20</t>
+    <t>sushi|$20!-</t>
   </si>
   <si>
     <t>scene|character|light|place</t>
   </si>
   <si>
-    <t>fish|chips|$15....</t>
+    <t>fish|chips|$15!-</t>
   </si>
   <si>
     <t>restaurant|friend</t>
@@ -5140,25 +5242,34 @@
     <t>space|kind|alice|wonderland|setting</t>
   </si>
   <si>
-    <t>meal|$60</t>
-  </si>
-  <si>
-    <t>something|atmosphere</t>
-  </si>
-  <si>
-    <t>place|pirces</t>
-  </si>
-  <si>
-    <t>dinner|feet|$400.00</t>
+    <t>meal|$60!-</t>
+  </si>
+  <si>
+    <t>|place|bit</t>
+  </si>
+  <si>
+    <t>im|place|fun|pirces</t>
+  </si>
+  <si>
+    <t>|dinner</t>
+  </si>
+  <si>
+    <t>dinner|feet|$400.00!-</t>
   </si>
   <si>
     <t>area|garden</t>
   </si>
   <si>
-    <t>guacamole|plate|$11</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
+    <t>guacamole|plate|$11!-</t>
+  </si>
+  <si>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
+  </si>
+  <si>
+    <t>view|river|nyc</t>
+  </si>
+  <si>
+    <t>|restaurant</t>
   </si>
   <si>
     <t>food|price|people|people</t>
@@ -5167,13 +5278,16 @@
     <t>booths|eachother|couple</t>
   </si>
   <si>
-    <t>prices|view</t>
+    <t>|prices|view</t>
   </si>
   <si>
     <t>bathroom|mens</t>
   </si>
   <si>
-    <t>price|prestige</t>
+    <t>price|prestige|location</t>
+  </si>
+  <si>
+    <t>|boths</t>
   </si>
   <si>
     <t>restaurant|food</t>
@@ -5188,64 +5302,61 @@
     <t>place|value</t>
   </si>
   <si>
-    <t>atmosphere|scheme</t>
-  </si>
-  <si>
-    <t>service|price|dish|$10.</t>
-  </si>
-  <si>
-    <t>thing|decor</t>
+    <t>atmosphere|bit|scheme</t>
+  </si>
+  <si>
+    <t>service|price|dish|$10!-</t>
   </si>
   <si>
     <t>martinis</t>
   </si>
   <si>
-    <t>times|bunch|birthday|friends</t>
-  </si>
-  <si>
-    <t>dinner|wine|$500</t>
+    <t>dj|bunch|birthday|friends</t>
+  </si>
+  <si>
+    <t>dinner|wine|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
   </si>
   <si>
-    <t>place|whealthy</t>
-  </si>
-  <si>
-    <t>restaurants|landmark</t>
-  </si>
-  <si>
-    <t>environment|guys|wives|escorts</t>
-  </si>
-  <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>diners|money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>dinner|$55</t>
+    <t>place|joe|whealthy</t>
+  </si>
+  <si>
+    <t>|restaurants|landmark</t>
+  </si>
+  <si>
+    <t>environment|lot|guys|wives|escorts</t>
+  </si>
+  <si>
+    <t>|service|$500!-</t>
+  </si>
+  <si>
+    <t>|diners</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>dinner|$55!-</t>
   </si>
   <si>
     <t>show|food|wallets|experience|dancers|belly</t>
   </si>
   <si>
-    <t>bill|portion</t>
-  </si>
-  <si>
-    <t>money|money.</t>
+    <t>|bill|portion</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>side|food</t>
   </si>
   <si>
-    <t>restaurant|feel|price|place|$25),</t>
-  </si>
-  <si>
-    <t>something|food|$</t>
+    <t>restaurant|feel|price|place|$25!-</t>
+  </si>
+  <si>
+    <t>food|$!-</t>
   </si>
   <si>
     <t>buffet|lunch</t>
@@ -5254,25 +5365,28 @@
     <t>dinner|ideal</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
-  </si>
-  <si>
-    <t>brasserie|opinion|restaurants</t>
-  </si>
-  <si>
-    <t>deal|party|$29</t>
-  </si>
-  <si>
-    <t>company|point|price|things|brasserie</t>
-  </si>
-  <si>
-    <t>service|$500</t>
-  </si>
-  <si>
-    <t>meat|kimchi|sauces|meal|service</t>
-  </si>
-  <si>
-    <t>bite|salmon|restaurants|salmon|$24</t>
+    <t>stone|bowl|$2!-</t>
+  </si>
+  <si>
+    <t>restaurant|city</t>
+  </si>
+  <si>
+    <t>brasserie|opinion|restaurants|city</t>
+  </si>
+  <si>
+    <t>deal|party|$29!-</t>
+  </si>
+  <si>
+    <t>company|date|point|price|brasserie</t>
+  </si>
+  <si>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>meat|kimchi|sauces|salad|meal|service</t>
+  </si>
+  <si>
+    <t>bite|salmon|restaurants|salmon|$24!-</t>
   </si>
   <si>
     <t>eggplant</t>
@@ -5281,13 +5395,13 @@
     <t>pricing</t>
   </si>
   <si>
-    <t>service|$60</t>
-  </si>
-  <si>
-    <t>joint|glance|bark</t>
-  </si>
-  <si>
-    <t>restaurant|clients</t>
+    <t>service|$60!-</t>
+  </si>
+  <si>
+    <t>joint|dog|glance|bark</t>
+  </si>
+  <si>
+    <t>restaurant|nyc|clients</t>
   </si>
   <si>
     <t>bread</t>
@@ -5802,10 +5916,10 @@
         <v>1285</v>
       </c>
       <c r="G2" t="s">
-        <v>1089</v>
+        <v>1456</v>
       </c>
       <c r="H2" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5828,10 +5942,10 @@
         <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1442</v>
+        <v>1457</v>
       </c>
       <c r="H3" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5851,13 +5965,13 @@
         <v>1278</v>
       </c>
       <c r="F4" t="s">
-        <v>1337</v>
+        <v>1278</v>
       </c>
       <c r="G4" t="s">
-        <v>1443</v>
+        <v>933</v>
       </c>
       <c r="H4" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5880,10 +5994,10 @@
         <v>1337</v>
       </c>
       <c r="G5" t="s">
-        <v>1444</v>
+        <v>1458</v>
       </c>
       <c r="H5" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5906,10 +6020,10 @@
         <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1445</v>
+        <v>1459</v>
       </c>
       <c r="H6" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5932,10 +6046,10 @@
         <v>1339</v>
       </c>
       <c r="G7" t="s">
-        <v>1446</v>
+        <v>1460</v>
       </c>
       <c r="H7" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5958,10 +6072,10 @@
         <v>1340</v>
       </c>
       <c r="G8" t="s">
-        <v>1447</v>
+        <v>1461</v>
       </c>
       <c r="H8" t="s">
-        <v>1763</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5984,10 +6098,10 @@
         <v>1294</v>
       </c>
       <c r="G9" t="s">
-        <v>1448</v>
+        <v>1462</v>
       </c>
       <c r="H9" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6010,10 +6124,10 @@
         <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1449</v>
+        <v>1463</v>
       </c>
       <c r="H10" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6036,10 +6150,10 @@
         <v>1276</v>
       </c>
       <c r="G11" t="s">
-        <v>1450</v>
+        <v>1464</v>
       </c>
       <c r="H11" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6062,10 +6176,10 @@
         <v>1342</v>
       </c>
       <c r="G12" t="s">
-        <v>1451</v>
+        <v>1465</v>
       </c>
       <c r="H12" t="s">
-        <v>1763</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6085,13 +6199,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="G13" t="s">
-        <v>1452</v>
+        <v>1466</v>
       </c>
       <c r="H13" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6111,13 +6225,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G14" t="s">
-        <v>1453</v>
+        <v>1467</v>
       </c>
       <c r="H14" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6137,13 +6251,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1285</v>
+        <v>1343</v>
       </c>
       <c r="G15" t="s">
-        <v>1454</v>
+        <v>1468</v>
       </c>
       <c r="H15" t="s">
-        <v>1765</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6166,10 +6280,10 @@
         <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1455</v>
+        <v>1469</v>
       </c>
       <c r="H16" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6192,10 +6306,10 @@
         <v>1345</v>
       </c>
       <c r="G17" t="s">
-        <v>1456</v>
+        <v>1470</v>
       </c>
       <c r="H17" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6215,13 +6329,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1276</v>
+        <v>1346</v>
       </c>
       <c r="G18" t="s">
-        <v>947</v>
+        <v>1471</v>
       </c>
       <c r="H18" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6241,7 +6355,7 @@
         <v>1278</v>
       </c>
       <c r="H19" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6267,7 +6381,7 @@
         <v>947</v>
       </c>
       <c r="H20" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6293,7 +6407,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6313,13 +6427,13 @@
         <v>1276</v>
       </c>
       <c r="F22" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G22" t="s">
-        <v>1457</v>
+        <v>1472</v>
       </c>
       <c r="H22" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6339,13 +6453,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1278</v>
+        <v>1348</v>
       </c>
       <c r="G23" t="s">
-        <v>1458</v>
+        <v>1473</v>
       </c>
       <c r="H23" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6371,7 +6485,7 @@
         <v>933</v>
       </c>
       <c r="H24" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6391,13 +6505,13 @@
         <v>1276</v>
       </c>
       <c r="F25" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G25" t="s">
-        <v>1459</v>
+        <v>1474</v>
       </c>
       <c r="H25" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6417,13 +6531,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="G26" t="s">
-        <v>1460</v>
+        <v>1475</v>
       </c>
       <c r="H26" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6449,7 +6563,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6469,13 +6583,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G28" t="s">
-        <v>1461</v>
+        <v>1476</v>
       </c>
       <c r="H28" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6495,13 +6609,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G29" t="s">
-        <v>1462</v>
+        <v>1477</v>
       </c>
       <c r="H29" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6521,13 +6635,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G30" t="s">
-        <v>1463</v>
+        <v>1478</v>
       </c>
       <c r="H30" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6547,13 +6661,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G31" t="s">
-        <v>1464</v>
+        <v>1479</v>
       </c>
       <c r="H31" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6573,13 +6687,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G32" t="s">
-        <v>1465</v>
+        <v>1480</v>
       </c>
       <c r="H32" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6605,7 +6719,7 @@
         <v>959</v>
       </c>
       <c r="H33" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6631,7 +6745,7 @@
         <v>933</v>
       </c>
       <c r="H34" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6651,13 +6765,13 @@
         <v>1287</v>
       </c>
       <c r="F35" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="G35" t="s">
-        <v>1466</v>
+        <v>1481</v>
       </c>
       <c r="H35" t="s">
-        <v>1767</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6677,13 +6791,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G36" t="s">
-        <v>1467</v>
+        <v>1482</v>
       </c>
       <c r="H36" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6709,7 +6823,7 @@
         <v>962</v>
       </c>
       <c r="H37" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6732,10 +6846,10 @@
         <v>1278</v>
       </c>
       <c r="G38" t="s">
-        <v>933</v>
+        <v>1483</v>
       </c>
       <c r="H38" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6755,13 +6869,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G39" t="s">
-        <v>1468</v>
+        <v>1484</v>
       </c>
       <c r="H39" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6781,13 +6895,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G40" t="s">
-        <v>1469</v>
+        <v>1485</v>
       </c>
       <c r="H40" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6807,13 +6921,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G41" t="s">
-        <v>1470</v>
+        <v>1486</v>
       </c>
       <c r="H41" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6833,13 +6947,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
       <c r="G42" t="s">
-        <v>1471</v>
+        <v>1487</v>
       </c>
       <c r="H42" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6859,13 +6973,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="G43" t="s">
-        <v>1472</v>
+        <v>1488</v>
       </c>
       <c r="H43" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6891,7 +7005,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6911,13 +7025,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1340</v>
+        <v>1359</v>
       </c>
       <c r="G45" t="s">
-        <v>1473</v>
+        <v>1489</v>
       </c>
       <c r="H45" t="s">
-        <v>1768</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6937,13 +7051,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G46" t="s">
-        <v>1474</v>
+        <v>1490</v>
       </c>
       <c r="H46" t="s">
-        <v>1769</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6966,10 +7080,10 @@
         <v>1337</v>
       </c>
       <c r="G47" t="s">
-        <v>1475</v>
+        <v>1491</v>
       </c>
       <c r="H47" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6995,7 +7109,7 @@
         <v>989</v>
       </c>
       <c r="H48" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7018,10 +7132,10 @@
         <v>1337</v>
       </c>
       <c r="G49" t="s">
-        <v>1476</v>
+        <v>1492</v>
       </c>
       <c r="H49" t="s">
-        <v>1770</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7041,13 +7155,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="G50" t="s">
-        <v>1477</v>
+        <v>1493</v>
       </c>
       <c r="H50" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7070,10 +7184,10 @@
         <v>1360</v>
       </c>
       <c r="G51" t="s">
-        <v>1478</v>
+        <v>1494</v>
       </c>
       <c r="H51" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7093,13 +7207,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
       <c r="G52" t="s">
-        <v>1479</v>
+        <v>1495</v>
       </c>
       <c r="H52" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7122,10 +7236,10 @@
         <v>1337</v>
       </c>
       <c r="G53" t="s">
-        <v>1480</v>
+        <v>1496</v>
       </c>
       <c r="H53" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7148,10 +7262,10 @@
         <v>1337</v>
       </c>
       <c r="G54" t="s">
-        <v>1481</v>
+        <v>1497</v>
       </c>
       <c r="H54" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7171,13 +7285,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G55" t="s">
-        <v>1482</v>
+        <v>1498</v>
       </c>
       <c r="H55" t="s">
-        <v>1771</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7197,13 +7311,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G56" t="s">
-        <v>1483</v>
+        <v>1499</v>
       </c>
       <c r="H56" t="s">
-        <v>1772</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7223,13 +7337,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G57" t="s">
-        <v>1484</v>
+        <v>1500</v>
       </c>
       <c r="H57" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7249,13 +7363,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G58" t="s">
-        <v>1485</v>
+        <v>1501</v>
       </c>
       <c r="H58" t="s">
-        <v>1773</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7275,13 +7389,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G59" t="s">
-        <v>1486</v>
+        <v>1502</v>
       </c>
       <c r="H59" t="s">
-        <v>1771</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7301,13 +7415,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1285</v>
+        <v>1341</v>
       </c>
       <c r="G60" t="s">
-        <v>1487</v>
+        <v>1503</v>
       </c>
       <c r="H60" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7327,13 +7441,13 @@
         <v>1278</v>
       </c>
       <c r="F61" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G61" t="s">
-        <v>1488</v>
+        <v>1504</v>
       </c>
       <c r="H61" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7353,13 +7467,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G62" t="s">
-        <v>1489</v>
+        <v>1505</v>
       </c>
       <c r="H62" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7379,13 +7493,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G63" t="s">
-        <v>1490</v>
+        <v>1506</v>
       </c>
       <c r="H63" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7408,10 +7522,10 @@
         <v>1337</v>
       </c>
       <c r="G64" t="s">
-        <v>1491</v>
+        <v>1507</v>
       </c>
       <c r="H64" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7437,7 +7551,7 @@
         <v>947</v>
       </c>
       <c r="H65" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7463,7 +7577,7 @@
         <v>987</v>
       </c>
       <c r="H66" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7486,10 +7600,10 @@
         <v>1278</v>
       </c>
       <c r="G67" t="s">
-        <v>989</v>
+        <v>1508</v>
       </c>
       <c r="H67" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7509,13 +7623,13 @@
         <v>1294</v>
       </c>
       <c r="F68" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G68" t="s">
-        <v>989</v>
+        <v>1509</v>
       </c>
       <c r="H68" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7535,13 +7649,13 @@
         <v>1295</v>
       </c>
       <c r="F69" t="s">
-        <v>1351</v>
+        <v>1368</v>
       </c>
       <c r="G69" t="s">
-        <v>1492</v>
+        <v>1510</v>
       </c>
       <c r="H69" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7561,13 +7675,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="G70" t="s">
-        <v>1493</v>
+        <v>1511</v>
       </c>
       <c r="H70" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7587,13 +7701,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
       <c r="G71" t="s">
-        <v>1494</v>
+        <v>1512</v>
       </c>
       <c r="H71" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7613,13 +7727,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1278</v>
+        <v>1344</v>
       </c>
       <c r="G72" t="s">
-        <v>933</v>
+        <v>1513</v>
       </c>
       <c r="H72" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7645,7 +7759,7 @@
         <v>947</v>
       </c>
       <c r="H73" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7665,13 +7779,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="G74" t="s">
-        <v>1495</v>
+        <v>1514</v>
       </c>
       <c r="H74" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7694,10 +7808,10 @@
         <v>1276</v>
       </c>
       <c r="G75" t="s">
-        <v>985</v>
+        <v>1515</v>
       </c>
       <c r="H75" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7717,13 +7831,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1343</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1516</v>
       </c>
       <c r="H76" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7743,13 +7857,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1337</v>
+        <v>1370</v>
       </c>
       <c r="G77" t="s">
-        <v>1496</v>
+        <v>1517</v>
       </c>
       <c r="H77" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7769,13 +7883,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G78" t="s">
-        <v>1497</v>
+        <v>1518</v>
       </c>
       <c r="H78" t="s">
-        <v>1774</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7798,10 +7912,10 @@
         <v>1337</v>
       </c>
       <c r="G79" t="s">
-        <v>1498</v>
+        <v>1519</v>
       </c>
       <c r="H79" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7827,7 +7941,7 @@
         <v>933</v>
       </c>
       <c r="H80" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7850,10 +7964,10 @@
         <v>1337</v>
       </c>
       <c r="G81" t="s">
-        <v>1499</v>
+        <v>1520</v>
       </c>
       <c r="H81" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7879,7 +7993,7 @@
         <v>1065</v>
       </c>
       <c r="H82" t="s">
-        <v>1773</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7905,7 +8019,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7925,13 +8039,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
       <c r="G84" t="s">
-        <v>1500</v>
+        <v>1521</v>
       </c>
       <c r="H84" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7954,10 +8068,10 @@
         <v>1337</v>
       </c>
       <c r="G85" t="s">
-        <v>1501</v>
+        <v>1522</v>
       </c>
       <c r="H85" t="s">
-        <v>1775</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7980,10 +8094,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1502</v>
+        <v>1523</v>
       </c>
       <c r="H86" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8003,13 +8117,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G87" t="s">
-        <v>1503</v>
+        <v>1524</v>
       </c>
       <c r="H87" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8029,13 +8143,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="G88" t="s">
-        <v>1504</v>
+        <v>1525</v>
       </c>
       <c r="H88" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8055,13 +8169,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G89" t="s">
-        <v>1505</v>
+        <v>1526</v>
       </c>
       <c r="H89" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8081,13 +8195,13 @@
         <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="G90" t="s">
-        <v>1506</v>
+        <v>1527</v>
       </c>
       <c r="H90" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8107,13 +8221,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="G91" t="s">
-        <v>1507</v>
+        <v>1528</v>
       </c>
       <c r="H91" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8133,13 +8247,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1337</v>
+        <v>1361</v>
       </c>
       <c r="G92" t="s">
-        <v>1508</v>
+        <v>1529</v>
       </c>
       <c r="H92" t="s">
-        <v>1776</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8159,13 +8273,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="G93" t="s">
-        <v>1509</v>
+        <v>1530</v>
       </c>
       <c r="H93" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8185,13 +8299,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G94" t="s">
-        <v>1510</v>
+        <v>1531</v>
       </c>
       <c r="H94" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8211,13 +8325,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="G95" t="s">
-        <v>1511</v>
+        <v>1532</v>
       </c>
       <c r="H95" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8237,13 +8351,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G96" t="s">
-        <v>1512</v>
+        <v>1533</v>
       </c>
       <c r="H96" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8263,13 +8377,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G97" t="s">
-        <v>1513</v>
+        <v>1534</v>
       </c>
       <c r="H97" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8289,13 +8403,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1276</v>
+        <v>1364</v>
       </c>
       <c r="G98" t="s">
-        <v>1514</v>
+        <v>1535</v>
       </c>
       <c r="H98" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8315,13 +8429,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G99" t="s">
-        <v>1515</v>
+        <v>1536</v>
       </c>
       <c r="H99" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8344,10 +8458,10 @@
         <v>1278</v>
       </c>
       <c r="G100" t="s">
-        <v>1516</v>
+        <v>1537</v>
       </c>
       <c r="H100" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8367,13 +8481,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G101" t="s">
-        <v>1517</v>
+        <v>1538</v>
       </c>
       <c r="H101" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8396,10 +8510,10 @@
         <v>1285</v>
       </c>
       <c r="G102" t="s">
-        <v>1518</v>
+        <v>1539</v>
       </c>
       <c r="H102" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8425,7 +8539,7 @@
         <v>968</v>
       </c>
       <c r="H103" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8445,13 +8559,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1343</v>
+        <v>1373</v>
       </c>
       <c r="G104" t="s">
-        <v>1519</v>
+        <v>1540</v>
       </c>
       <c r="H104" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8477,7 +8591,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8500,10 +8614,10 @@
         <v>1337</v>
       </c>
       <c r="G106" t="s">
-        <v>1520</v>
+        <v>1541</v>
       </c>
       <c r="H106" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8523,13 +8637,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="G107" t="s">
-        <v>1521</v>
+        <v>1542</v>
       </c>
       <c r="H107" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8552,10 +8666,10 @@
         <v>1344</v>
       </c>
       <c r="G108" t="s">
-        <v>1522</v>
+        <v>1543</v>
       </c>
       <c r="H108" t="s">
-        <v>1777</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8578,10 +8692,10 @@
         <v>1278</v>
       </c>
       <c r="G109" t="s">
-        <v>1523</v>
+        <v>1544</v>
       </c>
       <c r="H109" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8607,7 +8721,7 @@
         <v>1025</v>
       </c>
       <c r="H110" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8633,7 +8747,7 @@
         <v>933</v>
       </c>
       <c r="H111" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8653,13 +8767,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
       <c r="G112" t="s">
-        <v>1524</v>
+        <v>1545</v>
       </c>
       <c r="H112" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8679,13 +8793,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1285</v>
+        <v>1343</v>
       </c>
       <c r="G113" t="s">
-        <v>1065</v>
+        <v>1546</v>
       </c>
       <c r="H113" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8711,7 +8825,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8734,10 +8848,10 @@
         <v>1344</v>
       </c>
       <c r="G115" t="s">
-        <v>1522</v>
+        <v>1543</v>
       </c>
       <c r="H115" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8757,13 +8871,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1342</v>
+        <v>1375</v>
       </c>
       <c r="G116" t="s">
-        <v>1525</v>
+        <v>1547</v>
       </c>
       <c r="H116" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8783,13 +8897,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
       <c r="G117" t="s">
-        <v>1526</v>
+        <v>1548</v>
       </c>
       <c r="H117" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8809,13 +8923,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1353</v>
+        <v>1376</v>
       </c>
       <c r="G118" t="s">
-        <v>1527</v>
+        <v>1549</v>
       </c>
       <c r="H118" t="s">
-        <v>1774</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8835,13 +8949,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G119" t="s">
-        <v>1528</v>
+        <v>1550</v>
       </c>
       <c r="H119" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8861,13 +8975,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="G120" t="s">
-        <v>1529</v>
+        <v>1551</v>
       </c>
       <c r="H120" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8887,13 +9001,13 @@
         <v>1301</v>
       </c>
       <c r="F121" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
       <c r="G121" t="s">
-        <v>1530</v>
+        <v>1552</v>
       </c>
       <c r="H121" t="s">
-        <v>1771</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8919,7 +9033,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8939,13 +9053,13 @@
         <v>1278</v>
       </c>
       <c r="F123" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="G123" t="s">
-        <v>1531</v>
+        <v>1553</v>
       </c>
       <c r="H123" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8971,7 +9085,7 @@
         <v>1035</v>
       </c>
       <c r="H124" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8991,13 +9105,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G125" t="s">
-        <v>1532</v>
+        <v>1554</v>
       </c>
       <c r="H125" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9020,10 +9134,10 @@
         <v>1337</v>
       </c>
       <c r="G126" t="s">
-        <v>1533</v>
+        <v>1555</v>
       </c>
       <c r="H126" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9046,10 +9160,10 @@
         <v>1337</v>
       </c>
       <c r="G127" t="s">
-        <v>1534</v>
+        <v>1556</v>
       </c>
       <c r="H127" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9075,7 +9189,7 @@
         <v>947</v>
       </c>
       <c r="H128" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9095,13 +9209,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G129" t="s">
-        <v>1535</v>
+        <v>1557</v>
       </c>
       <c r="H129" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9121,13 +9235,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G130" t="s">
-        <v>1536</v>
+        <v>1558</v>
       </c>
       <c r="H130" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9147,13 +9261,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="G131" t="s">
-        <v>1537</v>
+        <v>1559</v>
       </c>
       <c r="H131" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9179,7 +9293,7 @@
         <v>1240</v>
       </c>
       <c r="H132" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9205,7 +9319,7 @@
         <v>933</v>
       </c>
       <c r="H133" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9225,13 +9339,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
       <c r="G134" t="s">
-        <v>1538</v>
+        <v>1560</v>
       </c>
       <c r="H134" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9251,13 +9365,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="G135" t="s">
-        <v>1539</v>
+        <v>1561</v>
       </c>
       <c r="H135" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9277,13 +9391,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1278</v>
+        <v>1351</v>
       </c>
       <c r="G136" t="s">
-        <v>1046</v>
+        <v>1562</v>
       </c>
       <c r="H136" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9303,13 +9417,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1377</v>
+        <v>1340</v>
       </c>
       <c r="G137" t="s">
-        <v>1540</v>
+        <v>1563</v>
       </c>
       <c r="H137" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9335,7 +9449,7 @@
         <v>1025</v>
       </c>
       <c r="H138" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9355,13 +9469,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="G139" t="s">
-        <v>1541</v>
+        <v>1564</v>
       </c>
       <c r="H139" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9381,13 +9495,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="G140" t="s">
-        <v>1542</v>
+        <v>1565</v>
       </c>
       <c r="H140" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9410,10 +9524,10 @@
         <v>1278</v>
       </c>
       <c r="G141" t="s">
-        <v>1050</v>
+        <v>1566</v>
       </c>
       <c r="H141" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9433,13 +9547,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="G142" t="s">
-        <v>1543</v>
+        <v>1567</v>
       </c>
       <c r="H142" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9459,13 +9573,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1372</v>
+        <v>1384</v>
       </c>
       <c r="G143" t="s">
-        <v>1544</v>
+        <v>1568</v>
       </c>
       <c r="H143" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9485,13 +9599,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1340</v>
+        <v>1375</v>
       </c>
       <c r="G144" t="s">
-        <v>1545</v>
+        <v>1569</v>
       </c>
       <c r="H144" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9511,13 +9625,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1379</v>
+        <v>1385</v>
       </c>
       <c r="G145" t="s">
-        <v>1546</v>
+        <v>1570</v>
       </c>
       <c r="H145" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9537,13 +9651,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1380</v>
+        <v>1386</v>
       </c>
       <c r="G146" t="s">
-        <v>1547</v>
+        <v>1571</v>
       </c>
       <c r="H146" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9566,10 +9680,10 @@
         <v>1276</v>
       </c>
       <c r="G147" t="s">
-        <v>931</v>
+        <v>1572</v>
       </c>
       <c r="H147" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9589,13 +9703,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1340</v>
+        <v>1375</v>
       </c>
       <c r="G148" t="s">
-        <v>1548</v>
+        <v>1573</v>
       </c>
       <c r="H148" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9618,10 +9732,10 @@
         <v>1337</v>
       </c>
       <c r="G149" t="s">
-        <v>1549</v>
+        <v>1574</v>
       </c>
       <c r="H149" t="s">
-        <v>1778</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9641,13 +9755,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1369</v>
+        <v>1341</v>
       </c>
       <c r="G150" t="s">
-        <v>1550</v>
+        <v>1575</v>
       </c>
       <c r="H150" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9667,13 +9781,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1381</v>
+        <v>1387</v>
       </c>
       <c r="G151" t="s">
-        <v>1551</v>
+        <v>1576</v>
       </c>
       <c r="H151" t="s">
-        <v>1779</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9693,13 +9807,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1337</v>
+        <v>1351</v>
       </c>
       <c r="G152" t="s">
-        <v>1552</v>
+        <v>1577</v>
       </c>
       <c r="H152" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9719,13 +9833,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
       <c r="G153" t="s">
-        <v>1553</v>
+        <v>1578</v>
       </c>
       <c r="H153" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9745,13 +9859,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
       <c r="G154" t="s">
-        <v>1554</v>
+        <v>1579</v>
       </c>
       <c r="H154" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9771,13 +9885,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1285</v>
+        <v>1366</v>
       </c>
       <c r="G155" t="s">
-        <v>1555</v>
+        <v>1580</v>
       </c>
       <c r="H155" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9803,7 +9917,7 @@
         <v>1062</v>
       </c>
       <c r="H156" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9823,13 +9937,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G157" t="s">
-        <v>1556</v>
+        <v>1581</v>
       </c>
       <c r="H157" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9849,13 +9963,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G158" t="s">
-        <v>1557</v>
+        <v>1582</v>
       </c>
       <c r="H158" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9881,7 +9995,7 @@
         <v>1065</v>
       </c>
       <c r="H159" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9907,7 +10021,7 @@
         <v>1095</v>
       </c>
       <c r="H160" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9933,7 +10047,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9959,7 +10073,7 @@
         <v>1062</v>
       </c>
       <c r="H162" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9982,10 +10096,10 @@
         <v>1278</v>
       </c>
       <c r="G163" t="s">
-        <v>976</v>
+        <v>1583</v>
       </c>
       <c r="H163" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10011,7 +10125,7 @@
         <v>996</v>
       </c>
       <c r="H164" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10031,13 +10145,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
       <c r="G165" t="s">
-        <v>1558</v>
+        <v>1584</v>
       </c>
       <c r="H165" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10060,10 +10174,10 @@
         <v>1278</v>
       </c>
       <c r="G166" t="s">
-        <v>1559</v>
+        <v>1585</v>
       </c>
       <c r="H166" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10083,13 +10197,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="G167" t="s">
-        <v>1560</v>
+        <v>1586</v>
       </c>
       <c r="H167" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10109,13 +10223,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="G168" t="s">
-        <v>1561</v>
+        <v>1587</v>
       </c>
       <c r="H168" t="s">
-        <v>1771</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10141,7 +10255,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1774</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10161,13 +10275,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
       <c r="G170" t="s">
-        <v>1562</v>
+        <v>1588</v>
       </c>
       <c r="H170" t="s">
-        <v>1771</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10187,13 +10301,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
       <c r="G171" t="s">
-        <v>1563</v>
+        <v>1589</v>
       </c>
       <c r="H171" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10213,13 +10327,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G172" t="s">
-        <v>1564</v>
+        <v>1590</v>
       </c>
       <c r="H172" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10242,10 +10356,10 @@
         <v>1337</v>
       </c>
       <c r="G173" t="s">
-        <v>1565</v>
+        <v>1591</v>
       </c>
       <c r="H173" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10265,13 +10379,13 @@
         <v>1277</v>
       </c>
       <c r="F174" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
       <c r="G174" t="s">
-        <v>1566</v>
+        <v>1592</v>
       </c>
       <c r="H174" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10291,13 +10405,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G175" t="s">
-        <v>1497</v>
+        <v>1518</v>
       </c>
       <c r="H175" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10317,13 +10431,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1276</v>
+        <v>1364</v>
       </c>
       <c r="G176" t="s">
-        <v>1450</v>
+        <v>1593</v>
       </c>
       <c r="H176" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10343,13 +10457,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="G177" t="s">
-        <v>1504</v>
+        <v>1525</v>
       </c>
       <c r="H177" t="s">
-        <v>1769</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10369,13 +10483,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="G178" t="s">
-        <v>1504</v>
+        <v>1525</v>
       </c>
       <c r="H178" t="s">
-        <v>1780</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10395,13 +10509,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="G179" t="s">
-        <v>1567</v>
+        <v>1594</v>
       </c>
       <c r="H179" t="s">
-        <v>1771</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10421,13 +10535,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1343</v>
+        <v>1373</v>
       </c>
       <c r="G180" t="s">
-        <v>1568</v>
+        <v>1595</v>
       </c>
       <c r="H180" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10447,13 +10561,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1377</v>
+        <v>1340</v>
       </c>
       <c r="G181" t="s">
-        <v>1569</v>
+        <v>1596</v>
       </c>
       <c r="H181" t="s">
-        <v>1774</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10473,13 +10587,13 @@
         <v>1278</v>
       </c>
       <c r="F182" t="s">
-        <v>1386</v>
+        <v>1392</v>
       </c>
       <c r="G182" t="s">
-        <v>1570</v>
+        <v>1597</v>
       </c>
       <c r="H182" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10505,7 +10619,7 @@
         <v>1086</v>
       </c>
       <c r="H183" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10528,10 +10642,10 @@
         <v>1278</v>
       </c>
       <c r="G184" t="s">
-        <v>1571</v>
+        <v>1598</v>
       </c>
       <c r="H184" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10554,10 +10668,10 @@
         <v>1341</v>
       </c>
       <c r="G185" t="s">
-        <v>1572</v>
+        <v>1599</v>
       </c>
       <c r="H185" t="s">
-        <v>1774</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10583,7 +10697,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10609,7 +10723,7 @@
         <v>933</v>
       </c>
       <c r="H187" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10635,7 +10749,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10661,7 +10775,7 @@
         <v>1095</v>
       </c>
       <c r="H189" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10687,7 +10801,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10707,13 +10821,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G191" t="s">
-        <v>1573</v>
+        <v>1600</v>
       </c>
       <c r="H191" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10736,10 +10850,10 @@
         <v>1341</v>
       </c>
       <c r="G192" t="s">
-        <v>1574</v>
+        <v>1601</v>
       </c>
       <c r="H192" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10759,13 +10873,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="G193" t="s">
-        <v>1504</v>
+        <v>1525</v>
       </c>
       <c r="H193" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10788,10 +10902,10 @@
         <v>1337</v>
       </c>
       <c r="G194" t="s">
-        <v>1575</v>
+        <v>1602</v>
       </c>
       <c r="H194" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10817,7 +10931,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10843,7 +10957,7 @@
         <v>1095</v>
       </c>
       <c r="H196" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10869,7 +10983,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10889,7 +11003,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10909,13 +11023,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="G199" t="s">
-        <v>1576</v>
+        <v>1603</v>
       </c>
       <c r="H199" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10941,7 +11055,7 @@
         <v>1046</v>
       </c>
       <c r="H200" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10961,13 +11075,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="G201" t="s">
-        <v>1577</v>
+        <v>1604</v>
       </c>
       <c r="H201" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10987,13 +11101,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="G202" t="s">
-        <v>1578</v>
+        <v>1605</v>
       </c>
       <c r="H202" t="s">
-        <v>1771</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11019,7 +11133,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11042,10 +11156,10 @@
         <v>1337</v>
       </c>
       <c r="G204" t="s">
-        <v>1579</v>
+        <v>1606</v>
       </c>
       <c r="H204" t="s">
-        <v>1777</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11065,13 +11179,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1351</v>
+        <v>1368</v>
       </c>
       <c r="G205" t="s">
-        <v>1580</v>
+        <v>1607</v>
       </c>
       <c r="H205" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11091,13 +11205,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1388</v>
+        <v>1394</v>
       </c>
       <c r="G206" t="s">
-        <v>1581</v>
+        <v>1608</v>
       </c>
       <c r="H206" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11120,10 +11234,10 @@
         <v>1344</v>
       </c>
       <c r="G207" t="s">
-        <v>1582</v>
+        <v>1609</v>
       </c>
       <c r="H207" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11143,13 +11257,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="G208" t="s">
-        <v>1583</v>
+        <v>1610</v>
       </c>
       <c r="H208" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11169,13 +11283,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
       <c r="G209" t="s">
-        <v>1584</v>
+        <v>1611</v>
       </c>
       <c r="H209" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11198,10 +11312,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1556</v>
+        <v>1612</v>
       </c>
       <c r="H210" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11221,13 +11335,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="G211" t="s">
-        <v>1585</v>
+        <v>1613</v>
       </c>
       <c r="H211" t="s">
-        <v>1781</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11247,13 +11361,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G212" t="s">
-        <v>1586</v>
+        <v>1614</v>
       </c>
       <c r="H212" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11279,7 +11393,7 @@
         <v>1106</v>
       </c>
       <c r="H213" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11299,13 +11413,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="G214" t="s">
-        <v>1587</v>
+        <v>1615</v>
       </c>
       <c r="H214" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11325,13 +11439,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1340</v>
+        <v>1358</v>
       </c>
       <c r="G215" t="s">
-        <v>1588</v>
+        <v>1616</v>
       </c>
       <c r="H215" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11351,13 +11465,13 @@
         <v>1278</v>
       </c>
       <c r="F216" t="s">
-        <v>1392</v>
+        <v>1398</v>
       </c>
       <c r="G216" t="s">
-        <v>1589</v>
+        <v>1617</v>
       </c>
       <c r="H216" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11377,13 +11491,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G217" t="s">
-        <v>1590</v>
+        <v>1618</v>
       </c>
       <c r="H217" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11403,13 +11517,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
       <c r="G218" t="s">
-        <v>1591</v>
+        <v>1619</v>
       </c>
       <c r="H218" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11429,13 +11543,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1343</v>
+        <v>1373</v>
       </c>
       <c r="G219" t="s">
-        <v>1592</v>
+        <v>1620</v>
       </c>
       <c r="H219" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11455,13 +11569,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1394</v>
+        <v>1400</v>
       </c>
       <c r="G220" t="s">
-        <v>1593</v>
+        <v>1621</v>
       </c>
       <c r="H220" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11481,13 +11595,13 @@
         <v>1313</v>
       </c>
       <c r="F221" t="s">
-        <v>1395</v>
+        <v>1401</v>
       </c>
       <c r="G221" t="s">
-        <v>1594</v>
+        <v>1622</v>
       </c>
       <c r="H221" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11507,13 +11621,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G222" t="s">
-        <v>1595</v>
+        <v>1623</v>
       </c>
       <c r="H222" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11533,13 +11647,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1396</v>
+        <v>1365</v>
       </c>
       <c r="G223" t="s">
-        <v>1596</v>
+        <v>1624</v>
       </c>
       <c r="H223" t="s">
-        <v>1782</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11559,13 +11673,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1397</v>
+        <v>1402</v>
       </c>
       <c r="G224" t="s">
-        <v>1597</v>
+        <v>1625</v>
       </c>
       <c r="H224" t="s">
-        <v>1783</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11591,7 +11705,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11614,10 +11728,10 @@
         <v>1276</v>
       </c>
       <c r="G226" t="s">
-        <v>931</v>
+        <v>1572</v>
       </c>
       <c r="H226" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11637,13 +11751,13 @@
         <v>1285</v>
       </c>
       <c r="F227" t="s">
-        <v>1285</v>
+        <v>1403</v>
       </c>
       <c r="G227" t="s">
-        <v>1089</v>
+        <v>1626</v>
       </c>
       <c r="H227" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11666,10 +11780,10 @@
         <v>1285</v>
       </c>
       <c r="G228" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="H228" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11695,7 +11809,7 @@
         <v>947</v>
       </c>
       <c r="H229" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11715,13 +11829,13 @@
         <v>1294</v>
       </c>
       <c r="F230" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G230" t="s">
-        <v>1516</v>
+        <v>1628</v>
       </c>
       <c r="H230" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11744,10 +11858,10 @@
         <v>1276</v>
       </c>
       <c r="G231" t="s">
-        <v>947</v>
+        <v>1629</v>
       </c>
       <c r="H231" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11770,10 +11884,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1599</v>
+        <v>1630</v>
       </c>
       <c r="H232" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11793,13 +11907,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1398</v>
+        <v>1404</v>
       </c>
       <c r="G233" t="s">
-        <v>1600</v>
+        <v>1631</v>
       </c>
       <c r="H233" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11819,13 +11933,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="G234" t="s">
-        <v>1601</v>
+        <v>1632</v>
       </c>
       <c r="H234" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11845,13 +11959,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G235" t="s">
-        <v>1602</v>
+        <v>1633</v>
       </c>
       <c r="H235" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11871,13 +11985,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1399</v>
+        <v>1343</v>
       </c>
       <c r="G236" t="s">
-        <v>1603</v>
+        <v>1634</v>
       </c>
       <c r="H236" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11897,13 +12011,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1276</v>
+        <v>1388</v>
       </c>
       <c r="G237" t="s">
-        <v>931</v>
+        <v>1635</v>
       </c>
       <c r="H237" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11923,13 +12037,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
       <c r="G238" t="s">
-        <v>1604</v>
+        <v>1636</v>
       </c>
       <c r="H238" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11949,13 +12063,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1278</v>
+        <v>1351</v>
       </c>
       <c r="G239" t="s">
-        <v>1605</v>
+        <v>1637</v>
       </c>
       <c r="H239" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11975,13 +12089,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="G240" t="s">
-        <v>1606</v>
+        <v>1638</v>
       </c>
       <c r="H240" t="s">
-        <v>1771</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12001,13 +12115,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="G241" t="s">
-        <v>1607</v>
+        <v>1639</v>
       </c>
       <c r="H241" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12027,13 +12141,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="G242" t="s">
-        <v>1608</v>
+        <v>1640</v>
       </c>
       <c r="H242" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12059,7 +12173,7 @@
         <v>947</v>
       </c>
       <c r="H243" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12085,7 +12199,7 @@
         <v>931</v>
       </c>
       <c r="H244" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12111,7 +12225,7 @@
         <v>947</v>
       </c>
       <c r="H245" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12137,7 +12251,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12156,8 +12270,14 @@
       <c r="E247" t="s">
         <v>1310</v>
       </c>
+      <c r="F247" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G247" t="s">
+        <v>1641</v>
+      </c>
       <c r="H247" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12177,13 +12297,13 @@
         <v>1276</v>
       </c>
       <c r="F248" t="s">
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="G248" t="s">
-        <v>1609</v>
+        <v>1642</v>
       </c>
       <c r="H248" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12203,13 +12323,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G249" t="s">
-        <v>1610</v>
+        <v>1643</v>
       </c>
       <c r="H249" t="s">
-        <v>1765</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12232,10 +12352,10 @@
         <v>1278</v>
       </c>
       <c r="G250" t="s">
-        <v>959</v>
+        <v>1644</v>
       </c>
       <c r="H250" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12255,13 +12375,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G251" t="s">
-        <v>1611</v>
+        <v>1645</v>
       </c>
       <c r="H251" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12287,7 +12407,7 @@
         <v>1132</v>
       </c>
       <c r="H252" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12307,13 +12427,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1347</v>
+        <v>1276</v>
       </c>
       <c r="G253" t="s">
-        <v>1612</v>
+        <v>947</v>
       </c>
       <c r="H253" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12339,7 +12459,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12359,13 +12479,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1344</v>
+        <v>1408</v>
       </c>
       <c r="G255" t="s">
-        <v>1613</v>
+        <v>1646</v>
       </c>
       <c r="H255" t="s">
-        <v>1774</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12388,10 +12508,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1614</v>
+        <v>1647</v>
       </c>
       <c r="H256" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12414,10 +12534,10 @@
         <v>1337</v>
       </c>
       <c r="G257" t="s">
-        <v>1442</v>
+        <v>1457</v>
       </c>
       <c r="H257" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12437,13 +12557,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1403</v>
+        <v>1352</v>
       </c>
       <c r="G258" t="s">
-        <v>1615</v>
+        <v>1648</v>
       </c>
       <c r="H258" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12463,13 +12583,13 @@
         <v>1285</v>
       </c>
       <c r="F259" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="G259" t="s">
-        <v>1616</v>
+        <v>1649</v>
       </c>
       <c r="H259" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12492,10 +12612,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1614</v>
+        <v>1647</v>
       </c>
       <c r="H260" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12521,7 +12641,7 @@
         <v>1138</v>
       </c>
       <c r="H261" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12547,7 +12667,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12567,13 +12687,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1367</v>
+        <v>1409</v>
       </c>
       <c r="G263" t="s">
-        <v>1617</v>
+        <v>1650</v>
       </c>
       <c r="H263" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12599,7 +12719,7 @@
         <v>1160</v>
       </c>
       <c r="H264" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12619,13 +12739,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1404</v>
+        <v>1410</v>
       </c>
       <c r="G265" t="s">
-        <v>1618</v>
+        <v>1651</v>
       </c>
       <c r="H265" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12645,13 +12765,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1405</v>
+        <v>1411</v>
       </c>
       <c r="G266" t="s">
-        <v>1619</v>
+        <v>1652</v>
       </c>
       <c r="H266" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12671,13 +12791,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G267" t="s">
-        <v>1620</v>
+        <v>1653</v>
       </c>
       <c r="H267" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12697,13 +12817,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="G268" t="s">
-        <v>1621</v>
+        <v>1654</v>
       </c>
       <c r="H268" t="s">
-        <v>1770</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12723,13 +12843,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="G269" t="s">
-        <v>1622</v>
+        <v>1655</v>
       </c>
       <c r="H269" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12749,13 +12869,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1294</v>
+        <v>1354</v>
       </c>
       <c r="G270" t="s">
-        <v>1623</v>
+        <v>1656</v>
       </c>
       <c r="H270" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12775,13 +12895,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="G271" t="s">
-        <v>1624</v>
+        <v>1657</v>
       </c>
       <c r="H271" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12801,13 +12921,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G272" t="s">
-        <v>1625</v>
+        <v>1658</v>
       </c>
       <c r="H272" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12830,10 +12950,10 @@
         <v>1344</v>
       </c>
       <c r="G273" t="s">
-        <v>1626</v>
+        <v>1659</v>
       </c>
       <c r="H273" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12853,13 +12973,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G274" t="s">
-        <v>1627</v>
+        <v>1660</v>
       </c>
       <c r="H274" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12879,13 +12999,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="G275" t="s">
-        <v>1628</v>
+        <v>1661</v>
       </c>
       <c r="H275" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12908,10 +13028,10 @@
         <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1629</v>
+        <v>1662</v>
       </c>
       <c r="H276" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12931,13 +13051,13 @@
         <v>1276</v>
       </c>
       <c r="F277" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G277" t="s">
-        <v>1630</v>
+        <v>1663</v>
       </c>
       <c r="H277" t="s">
-        <v>1774</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12957,13 +13077,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1408</v>
+        <v>1364</v>
       </c>
       <c r="G278" t="s">
-        <v>1631</v>
+        <v>1599</v>
       </c>
       <c r="H278" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12982,8 +13102,14 @@
       <c r="E279" t="s">
         <v>1276</v>
       </c>
+      <c r="F279" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1022</v>
+      </c>
       <c r="H279" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13003,13 +13129,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1340</v>
+        <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1632</v>
+        <v>1664</v>
       </c>
       <c r="H280" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13029,13 +13155,13 @@
         <v>1276</v>
       </c>
       <c r="F281" t="s">
-        <v>1278</v>
+        <v>1414</v>
       </c>
       <c r="G281" t="s">
-        <v>1633</v>
+        <v>1665</v>
       </c>
       <c r="H281" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13055,13 +13181,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1409</v>
+        <v>1415</v>
       </c>
       <c r="G282" t="s">
-        <v>1634</v>
+        <v>1666</v>
       </c>
       <c r="H282" t="s">
-        <v>1774</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13087,7 +13213,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13107,13 +13233,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1410</v>
+        <v>1416</v>
       </c>
       <c r="G284" t="s">
-        <v>1635</v>
+        <v>1667</v>
       </c>
       <c r="H284" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13133,13 +13259,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1411</v>
+        <v>1417</v>
       </c>
       <c r="G285" t="s">
-        <v>1636</v>
+        <v>1668</v>
       </c>
       <c r="H285" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13159,13 +13285,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1412</v>
+        <v>1418</v>
       </c>
       <c r="G286" t="s">
-        <v>1637</v>
+        <v>1669</v>
       </c>
       <c r="H286" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13191,7 +13317,7 @@
         <v>933</v>
       </c>
       <c r="H287" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13211,13 +13337,13 @@
         <v>1276</v>
       </c>
       <c r="F288" t="s">
-        <v>1359</v>
+        <v>1419</v>
       </c>
       <c r="G288" t="s">
-        <v>1638</v>
+        <v>1670</v>
       </c>
       <c r="H288" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13237,13 +13363,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G289" t="s">
-        <v>1639</v>
+        <v>1671</v>
       </c>
       <c r="H289" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13266,10 +13392,10 @@
         <v>1341</v>
       </c>
       <c r="G290" t="s">
-        <v>1640</v>
+        <v>1672</v>
       </c>
       <c r="H290" t="s">
-        <v>1770</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13292,10 +13418,10 @@
         <v>1341</v>
       </c>
       <c r="G291" t="s">
-        <v>1641</v>
+        <v>1673</v>
       </c>
       <c r="H291" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13315,13 +13441,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="G292" t="s">
-        <v>1642</v>
+        <v>1674</v>
       </c>
       <c r="H292" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13344,10 +13470,10 @@
         <v>1285</v>
       </c>
       <c r="G293" t="s">
-        <v>1199</v>
+        <v>1675</v>
       </c>
       <c r="H293" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13373,7 +13499,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13393,13 +13519,13 @@
         <v>1276</v>
       </c>
       <c r="F295" t="s">
-        <v>1276</v>
+        <v>1341</v>
       </c>
       <c r="G295" t="s">
-        <v>947</v>
+        <v>1676</v>
       </c>
       <c r="H295" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13425,7 +13551,7 @@
         <v>947</v>
       </c>
       <c r="H296" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13445,13 +13571,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="G297" t="s">
-        <v>1643</v>
+        <v>1677</v>
       </c>
       <c r="H297" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13471,13 +13597,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
       <c r="G298" t="s">
-        <v>1644</v>
+        <v>1678</v>
       </c>
       <c r="H298" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13503,7 +13629,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13522,8 +13648,14 @@
       <c r="E300" t="s">
         <v>1276</v>
       </c>
+      <c r="F300" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G300" t="s">
+        <v>951</v>
+      </c>
       <c r="H300" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13546,10 +13678,10 @@
         <v>1276</v>
       </c>
       <c r="G301" t="s">
-        <v>1645</v>
+        <v>1679</v>
       </c>
       <c r="H301" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13569,13 +13701,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="G302" t="s">
-        <v>1646</v>
+        <v>1680</v>
       </c>
       <c r="H302" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13595,13 +13727,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1414</v>
+        <v>1420</v>
       </c>
       <c r="G303" t="s">
-        <v>1647</v>
+        <v>1681</v>
       </c>
       <c r="H303" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13627,7 +13759,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13653,7 +13785,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13673,13 +13805,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G306" t="s">
-        <v>1648</v>
+        <v>1682</v>
       </c>
       <c r="H306" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13705,7 +13837,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13728,10 +13860,10 @@
         <v>1278</v>
       </c>
       <c r="G308" t="s">
-        <v>1649</v>
+        <v>1683</v>
       </c>
       <c r="H308" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13751,13 +13883,13 @@
         <v>1300</v>
       </c>
       <c r="F309" t="s">
-        <v>1415</v>
+        <v>1421</v>
       </c>
       <c r="G309" t="s">
-        <v>1650</v>
+        <v>1684</v>
       </c>
       <c r="H309" t="s">
-        <v>1763</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13783,7 +13915,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13806,10 +13938,10 @@
         <v>1285</v>
       </c>
       <c r="G311" t="s">
-        <v>1651</v>
+        <v>1685</v>
       </c>
       <c r="H311" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13835,7 +13967,7 @@
         <v>1089</v>
       </c>
       <c r="H312" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13855,13 +13987,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1347</v>
+        <v>1276</v>
       </c>
       <c r="G313" t="s">
-        <v>1652</v>
+        <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13887,7 +14019,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13907,13 +14039,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1398</v>
+        <v>1404</v>
       </c>
       <c r="G315" t="s">
-        <v>1653</v>
+        <v>1686</v>
       </c>
       <c r="H315" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13933,13 +14065,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1337</v>
+        <v>1347</v>
       </c>
       <c r="G316" t="s">
-        <v>1654</v>
+        <v>1687</v>
       </c>
       <c r="H316" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13965,7 +14097,7 @@
         <v>947</v>
       </c>
       <c r="H317" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13991,7 +14123,7 @@
         <v>933</v>
       </c>
       <c r="H318" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14010,8 +14142,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14037,7 +14175,7 @@
         <v>1089</v>
       </c>
       <c r="H320" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14057,13 +14195,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1349</v>
+        <v>1422</v>
       </c>
       <c r="G321" t="s">
-        <v>1655</v>
+        <v>1688</v>
       </c>
       <c r="H321" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14083,13 +14221,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1278</v>
+        <v>1351</v>
       </c>
       <c r="G322" t="s">
-        <v>1656</v>
+        <v>1689</v>
       </c>
       <c r="H322" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14109,13 +14247,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1408</v>
+        <v>1423</v>
       </c>
       <c r="G323" t="s">
-        <v>1657</v>
+        <v>1690</v>
       </c>
       <c r="H323" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14135,13 +14273,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G324" t="s">
-        <v>1658</v>
+        <v>1691</v>
       </c>
       <c r="H324" t="s">
-        <v>1769</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14167,7 +14305,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14193,7 +14331,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14213,13 +14351,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1416</v>
+        <v>1424</v>
       </c>
       <c r="G327" t="s">
-        <v>1659</v>
+        <v>1692</v>
       </c>
       <c r="H327" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14239,13 +14377,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1357</v>
+        <v>1425</v>
       </c>
       <c r="G328" t="s">
-        <v>1660</v>
+        <v>1693</v>
       </c>
       <c r="H328" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14265,13 +14403,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1417</v>
+        <v>1426</v>
       </c>
       <c r="G329" t="s">
-        <v>1661</v>
+        <v>1694</v>
       </c>
       <c r="H329" t="s">
-        <v>1784</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14291,13 +14429,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1340</v>
+        <v>1427</v>
       </c>
       <c r="G330" t="s">
-        <v>1662</v>
+        <v>1695</v>
       </c>
       <c r="H330" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14317,13 +14455,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1385</v>
+        <v>1428</v>
       </c>
       <c r="G331" t="s">
-        <v>1663</v>
+        <v>1696</v>
       </c>
       <c r="H331" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14343,13 +14481,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="G332" t="s">
-        <v>1664</v>
+        <v>1697</v>
       </c>
       <c r="H332" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14372,10 +14510,10 @@
         <v>1276</v>
       </c>
       <c r="G333" t="s">
-        <v>931</v>
+        <v>1572</v>
       </c>
       <c r="H333" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14398,10 +14536,10 @@
         <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1180</v>
+        <v>1698</v>
       </c>
       <c r="H334" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14421,13 +14559,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="G335" t="s">
-        <v>1665</v>
+        <v>1699</v>
       </c>
       <c r="H335" t="s">
-        <v>1774</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14447,13 +14585,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1418</v>
+        <v>1429</v>
       </c>
       <c r="G336" t="s">
-        <v>1666</v>
+        <v>1700</v>
       </c>
       <c r="H336" t="s">
-        <v>1763</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14476,10 +14614,10 @@
         <v>1341</v>
       </c>
       <c r="G337" t="s">
-        <v>1667</v>
+        <v>1701</v>
       </c>
       <c r="H337" t="s">
-        <v>1769</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14499,13 +14637,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1419</v>
+        <v>1430</v>
       </c>
       <c r="G338" t="s">
-        <v>1668</v>
+        <v>1702</v>
       </c>
       <c r="H338" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14531,7 +14669,7 @@
         <v>1089</v>
       </c>
       <c r="H339" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14554,10 +14692,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1669</v>
+        <v>1703</v>
       </c>
       <c r="H340" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14577,13 +14715,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="G341" t="s">
-        <v>1670</v>
+        <v>1704</v>
       </c>
       <c r="H341" t="s">
-        <v>1785</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14609,7 +14747,7 @@
         <v>947</v>
       </c>
       <c r="H342" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14629,13 +14767,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="G343" t="s">
-        <v>1671</v>
+        <v>1705</v>
       </c>
       <c r="H343" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14655,13 +14793,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1420</v>
+        <v>1431</v>
       </c>
       <c r="G344" t="s">
-        <v>1672</v>
+        <v>1706</v>
       </c>
       <c r="H344" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14681,13 +14819,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1421</v>
+        <v>1432</v>
       </c>
       <c r="G345" t="s">
-        <v>1673</v>
+        <v>1707</v>
       </c>
       <c r="H345" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14713,7 +14851,7 @@
         <v>1089</v>
       </c>
       <c r="H346" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14733,13 +14871,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1422</v>
+        <v>1433</v>
       </c>
       <c r="G347" t="s">
-        <v>1674</v>
+        <v>1708</v>
       </c>
       <c r="H347" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14758,8 +14896,14 @@
       <c r="E348" t="s">
         <v>1276</v>
       </c>
+      <c r="F348" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G348" t="s">
+        <v>951</v>
+      </c>
       <c r="H348" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14785,7 +14929,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14805,13 +14949,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1423</v>
+        <v>1434</v>
       </c>
       <c r="G350" t="s">
-        <v>1675</v>
+        <v>1709</v>
       </c>
       <c r="H350" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14834,10 +14978,10 @@
         <v>1337</v>
       </c>
       <c r="G351" t="s">
-        <v>1626</v>
+        <v>1659</v>
       </c>
       <c r="H351" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14857,13 +15001,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1424</v>
+        <v>1435</v>
       </c>
       <c r="G352" t="s">
-        <v>1676</v>
+        <v>1710</v>
       </c>
       <c r="H352" t="s">
-        <v>1773</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14883,13 +15027,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1399</v>
+        <v>1425</v>
       </c>
       <c r="G353" t="s">
-        <v>1677</v>
+        <v>1711</v>
       </c>
       <c r="H353" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14908,14 +15052,8 @@
       <c r="E354" t="s">
         <v>1276</v>
       </c>
-      <c r="F354" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G354" t="s">
-        <v>1678</v>
-      </c>
       <c r="H354" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14935,13 +15073,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G355" t="s">
-        <v>1679</v>
+        <v>1712</v>
       </c>
       <c r="H355" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14967,7 +15105,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14987,13 +15125,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1425</v>
+        <v>1436</v>
       </c>
       <c r="G357" t="s">
-        <v>1680</v>
+        <v>1713</v>
       </c>
       <c r="H357" t="s">
-        <v>1786</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15016,10 +15154,10 @@
         <v>1276</v>
       </c>
       <c r="G358" t="s">
-        <v>947</v>
+        <v>1629</v>
       </c>
       <c r="H358" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15039,13 +15177,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="G359" t="s">
-        <v>1681</v>
+        <v>1714</v>
       </c>
       <c r="H359" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15068,10 +15206,10 @@
         <v>1285</v>
       </c>
       <c r="G360" t="s">
-        <v>1199</v>
+        <v>1675</v>
       </c>
       <c r="H360" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15091,13 +15229,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
       <c r="G361" t="s">
-        <v>1682</v>
+        <v>1715</v>
       </c>
       <c r="H361" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15123,7 +15261,7 @@
         <v>1240</v>
       </c>
       <c r="H362" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15143,13 +15281,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G363" t="s">
-        <v>1683</v>
+        <v>1716</v>
       </c>
       <c r="H363" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15169,13 +15307,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1337</v>
+        <v>1351</v>
       </c>
       <c r="G364" t="s">
-        <v>1684</v>
+        <v>1717</v>
       </c>
       <c r="H364" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15198,10 +15336,10 @@
         <v>1337</v>
       </c>
       <c r="G365" t="s">
-        <v>1685</v>
+        <v>1718</v>
       </c>
       <c r="H365" t="s">
-        <v>1787</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15227,7 +15365,7 @@
         <v>1089</v>
       </c>
       <c r="H366" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15253,7 +15391,7 @@
         <v>933</v>
       </c>
       <c r="H367" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15273,13 +15411,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="G368" t="s">
-        <v>1686</v>
+        <v>1719</v>
       </c>
       <c r="H368" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15302,10 +15440,10 @@
         <v>1337</v>
       </c>
       <c r="G369" t="s">
-        <v>1687</v>
+        <v>1720</v>
       </c>
       <c r="H369" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15325,13 +15463,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1355</v>
+        <v>1403</v>
       </c>
       <c r="G370" t="s">
-        <v>1688</v>
+        <v>1721</v>
       </c>
       <c r="H370" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15354,10 +15492,10 @@
         <v>1337</v>
       </c>
       <c r="G371" t="s">
-        <v>1689</v>
+        <v>1722</v>
       </c>
       <c r="H371" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15377,13 +15515,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="G372" t="s">
-        <v>1690</v>
+        <v>1723</v>
       </c>
       <c r="H372" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15403,13 +15541,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G373" t="s">
-        <v>1691</v>
+        <v>1724</v>
       </c>
       <c r="H373" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15432,10 +15570,10 @@
         <v>1285</v>
       </c>
       <c r="G374" t="s">
-        <v>1692</v>
+        <v>1725</v>
       </c>
       <c r="H374" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15458,10 +15596,10 @@
         <v>1285</v>
       </c>
       <c r="G375" t="s">
-        <v>1211</v>
+        <v>1726</v>
       </c>
       <c r="H375" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15481,13 +15619,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G376" t="s">
-        <v>1693</v>
+        <v>1727</v>
       </c>
       <c r="H376" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15507,13 +15645,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
       <c r="G377" t="s">
-        <v>1694</v>
+        <v>1728</v>
       </c>
       <c r="H377" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15533,13 +15671,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1349</v>
+        <v>1382</v>
       </c>
       <c r="G378" t="s">
-        <v>1695</v>
+        <v>1729</v>
       </c>
       <c r="H378" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15559,13 +15697,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1427</v>
+        <v>1437</v>
       </c>
       <c r="G379" t="s">
-        <v>1696</v>
+        <v>1730</v>
       </c>
       <c r="H379" t="s">
-        <v>1771</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15591,7 +15729,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15611,13 +15749,13 @@
         <v>1322</v>
       </c>
       <c r="F381" t="s">
-        <v>1428</v>
+        <v>1438</v>
       </c>
       <c r="G381" t="s">
-        <v>1697</v>
+        <v>1731</v>
       </c>
       <c r="H381" t="s">
-        <v>1763</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15637,13 +15775,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
       <c r="G382" t="s">
-        <v>1698</v>
+        <v>1732</v>
       </c>
       <c r="H382" t="s">
-        <v>1788</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15663,13 +15801,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
       <c r="G383" t="s">
-        <v>1699</v>
+        <v>1733</v>
       </c>
       <c r="H383" t="s">
-        <v>1779</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15689,13 +15827,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1380</v>
+        <v>1441</v>
       </c>
       <c r="G384" t="s">
-        <v>1700</v>
+        <v>1734</v>
       </c>
       <c r="H384" t="s">
-        <v>1763</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15715,13 +15853,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="G385" t="s">
-        <v>1701</v>
+        <v>1735</v>
       </c>
       <c r="H385" t="s">
-        <v>1778</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15741,13 +15879,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1431</v>
+        <v>1442</v>
       </c>
       <c r="G386" t="s">
-        <v>1702</v>
+        <v>1736</v>
       </c>
       <c r="H386" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15767,13 +15905,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G387" t="s">
-        <v>1703</v>
+        <v>1737</v>
       </c>
       <c r="H387" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15793,13 +15931,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1355</v>
+        <v>1425</v>
       </c>
       <c r="G388" t="s">
-        <v>1704</v>
+        <v>1738</v>
       </c>
       <c r="H388" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15825,7 +15963,7 @@
         <v>1065</v>
       </c>
       <c r="H389" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15845,13 +15983,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="G390" t="s">
-        <v>1705</v>
+        <v>1739</v>
       </c>
       <c r="H390" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15871,13 +16009,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G391" t="s">
-        <v>1706</v>
+        <v>1740</v>
       </c>
       <c r="H391" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15897,13 +16035,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
       <c r="G392" t="s">
-        <v>1707</v>
+        <v>1741</v>
       </c>
       <c r="H392" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15923,13 +16061,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G393" t="s">
-        <v>1708</v>
+        <v>1742</v>
       </c>
       <c r="H393" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15949,13 +16087,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1285</v>
+        <v>1343</v>
       </c>
       <c r="G394" t="s">
-        <v>1089</v>
+        <v>1743</v>
       </c>
       <c r="H394" t="s">
-        <v>1773</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15981,7 +16119,7 @@
         <v>1089</v>
       </c>
       <c r="H395" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16001,13 +16139,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1357</v>
+        <v>1285</v>
       </c>
       <c r="G396" t="s">
-        <v>1709</v>
+        <v>1065</v>
       </c>
       <c r="H396" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16027,13 +16165,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G397" t="s">
-        <v>1693</v>
+        <v>1727</v>
       </c>
       <c r="H397" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16053,13 +16191,13 @@
         <v>1294</v>
       </c>
       <c r="F398" t="s">
-        <v>1357</v>
+        <v>1443</v>
       </c>
       <c r="G398" t="s">
-        <v>1710</v>
+        <v>1744</v>
       </c>
       <c r="H398" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16085,7 +16223,7 @@
         <v>968</v>
       </c>
       <c r="H399" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16105,13 +16243,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="G400" t="s">
-        <v>1504</v>
+        <v>1525</v>
       </c>
       <c r="H400" t="s">
-        <v>1789</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16134,10 +16272,10 @@
         <v>1278</v>
       </c>
       <c r="G401" t="s">
-        <v>1227</v>
+        <v>1745</v>
       </c>
       <c r="H401" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16157,13 +16295,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
       <c r="G402" t="s">
-        <v>1711</v>
+        <v>1746</v>
       </c>
       <c r="H402" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16183,13 +16321,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="G403" t="s">
-        <v>1712</v>
+        <v>1747</v>
       </c>
       <c r="H403" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16209,13 +16347,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="G404" t="s">
-        <v>1713</v>
+        <v>1748</v>
       </c>
       <c r="H404" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16235,13 +16373,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G405" t="s">
-        <v>1497</v>
+        <v>1518</v>
       </c>
       <c r="H405" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16267,7 +16405,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16287,13 +16425,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1433</v>
+        <v>1444</v>
       </c>
       <c r="G407" t="s">
-        <v>1714</v>
+        <v>1749</v>
       </c>
       <c r="H407" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16313,13 +16451,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1285</v>
+        <v>1403</v>
       </c>
       <c r="G408" t="s">
-        <v>964</v>
+        <v>1750</v>
       </c>
       <c r="H408" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16342,10 +16480,10 @@
         <v>1278</v>
       </c>
       <c r="G409" t="s">
-        <v>968</v>
+        <v>1751</v>
       </c>
       <c r="H409" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16371,7 +16509,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16391,13 +16529,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1434</v>
+        <v>1445</v>
       </c>
       <c r="G411" t="s">
-        <v>1715</v>
+        <v>1752</v>
       </c>
       <c r="H411" t="s">
-        <v>1776</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16417,13 +16555,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="G412" t="s">
-        <v>1716</v>
+        <v>1753</v>
       </c>
       <c r="H412" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16443,13 +16581,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1421</v>
+        <v>1432</v>
       </c>
       <c r="G413" t="s">
-        <v>1717</v>
+        <v>1754</v>
       </c>
       <c r="H413" t="s">
-        <v>1775</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16469,13 +16607,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G414" t="s">
-        <v>1718</v>
+        <v>1755</v>
       </c>
       <c r="H414" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16495,13 +16633,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1385</v>
+        <v>1446</v>
       </c>
       <c r="G415" t="s">
-        <v>1719</v>
+        <v>1756</v>
       </c>
       <c r="H415" t="s">
-        <v>1790</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16527,7 +16665,7 @@
         <v>1240</v>
       </c>
       <c r="H416" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16550,10 +16688,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1241</v>
+        <v>1757</v>
       </c>
       <c r="H417" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16576,10 +16714,10 @@
         <v>1337</v>
       </c>
       <c r="G418" t="s">
-        <v>1720</v>
+        <v>1758</v>
       </c>
       <c r="H418" t="s">
-        <v>1777</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16599,13 +16737,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
       <c r="G419" t="s">
-        <v>1721</v>
+        <v>1759</v>
       </c>
       <c r="H419" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16625,13 +16763,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="G420" t="s">
-        <v>1722</v>
+        <v>1760</v>
       </c>
       <c r="H420" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16651,13 +16789,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1398</v>
+        <v>1404</v>
       </c>
       <c r="G421" t="s">
-        <v>1723</v>
+        <v>1761</v>
       </c>
       <c r="H421" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16680,10 +16818,10 @@
         <v>1278</v>
       </c>
       <c r="G422" t="s">
-        <v>933</v>
+        <v>1483</v>
       </c>
       <c r="H422" t="s">
-        <v>1764</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16709,7 +16847,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16735,7 +16873,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16755,13 +16893,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1357</v>
+        <v>1403</v>
       </c>
       <c r="G425" t="s">
-        <v>1724</v>
+        <v>1762</v>
       </c>
       <c r="H425" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16781,13 +16919,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1435</v>
+        <v>1447</v>
       </c>
       <c r="G426" t="s">
-        <v>1725</v>
+        <v>1763</v>
       </c>
       <c r="H426" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16807,13 +16945,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1365</v>
+        <v>1278</v>
       </c>
       <c r="G427" t="s">
         <v>1726</v>
       </c>
       <c r="H427" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16836,10 +16974,10 @@
         <v>1278</v>
       </c>
       <c r="G428" t="s">
-        <v>1727</v>
+        <v>1764</v>
       </c>
       <c r="H428" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16859,13 +16997,13 @@
         <v>1285</v>
       </c>
       <c r="F429" t="s">
-        <v>1361</v>
+        <v>1448</v>
       </c>
       <c r="G429" t="s">
-        <v>1728</v>
+        <v>1765</v>
       </c>
       <c r="H429" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16885,13 +17023,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
       <c r="G430" t="s">
-        <v>1729</v>
+        <v>1766</v>
       </c>
       <c r="H430" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16911,13 +17049,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="G431" t="s">
-        <v>1730</v>
+        <v>1767</v>
       </c>
       <c r="H431" t="s">
-        <v>1791</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16937,13 +17075,13 @@
         <v>1297</v>
       </c>
       <c r="F432" t="s">
-        <v>1365</v>
+        <v>1373</v>
       </c>
       <c r="G432" t="s">
-        <v>1731</v>
+        <v>1768</v>
       </c>
       <c r="H432" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16969,7 +17107,7 @@
         <v>968</v>
       </c>
       <c r="H433" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16989,13 +17127,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G434" t="s">
-        <v>1732</v>
+        <v>1769</v>
       </c>
       <c r="H434" t="s">
-        <v>1787</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17015,13 +17153,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1436</v>
+        <v>1449</v>
       </c>
       <c r="G435" t="s">
-        <v>1733</v>
+        <v>1770</v>
       </c>
       <c r="H435" t="s">
-        <v>1778</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17041,13 +17179,13 @@
         <v>1330</v>
       </c>
       <c r="F436" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G436" t="s">
-        <v>1734</v>
+        <v>1771</v>
       </c>
       <c r="H436" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17067,13 +17205,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1353</v>
+        <v>1276</v>
       </c>
       <c r="G437" t="s">
-        <v>1735</v>
+        <v>1772</v>
       </c>
       <c r="H437" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17099,7 +17237,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17119,13 +17257,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G439" t="s">
-        <v>1736</v>
+        <v>1773</v>
       </c>
       <c r="H439" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17145,13 +17283,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G440" t="s">
-        <v>1737</v>
+        <v>1774</v>
       </c>
       <c r="H440" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17171,13 +17309,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1377</v>
+        <v>1340</v>
       </c>
       <c r="G441" t="s">
-        <v>1738</v>
+        <v>1775</v>
       </c>
       <c r="H441" t="s">
-        <v>1763</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17197,13 +17335,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="G442" t="s">
-        <v>1739</v>
+        <v>1776</v>
       </c>
       <c r="H442" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17223,13 +17361,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1351</v>
+        <v>1278</v>
       </c>
       <c r="G443" t="s">
-        <v>1740</v>
+        <v>1777</v>
       </c>
       <c r="H443" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17252,10 +17390,10 @@
         <v>1337</v>
       </c>
       <c r="G444" t="s">
-        <v>1741</v>
+        <v>1778</v>
       </c>
       <c r="H444" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17275,13 +17413,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1437</v>
+        <v>1450</v>
       </c>
       <c r="G445" t="s">
-        <v>1742</v>
+        <v>1779</v>
       </c>
       <c r="H445" t="s">
-        <v>1792</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17301,13 +17439,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1383</v>
+        <v>1353</v>
       </c>
       <c r="G446" t="s">
-        <v>1743</v>
+        <v>1780</v>
       </c>
       <c r="H446" t="s">
-        <v>1766</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17330,10 +17468,10 @@
         <v>1337</v>
       </c>
       <c r="G447" t="s">
-        <v>1744</v>
+        <v>1781</v>
       </c>
       <c r="H447" t="s">
-        <v>1774</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17353,13 +17491,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="G448" t="s">
-        <v>1745</v>
+        <v>1782</v>
       </c>
       <c r="H448" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17379,13 +17517,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1438</v>
+        <v>1451</v>
       </c>
       <c r="G449" t="s">
-        <v>1746</v>
+        <v>1783</v>
       </c>
       <c r="H449" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17405,13 +17543,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1278</v>
+        <v>1353</v>
       </c>
       <c r="G450" t="s">
-        <v>968</v>
+        <v>1784</v>
       </c>
       <c r="H450" t="s">
-        <v>1761</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17431,13 +17569,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1340</v>
+        <v>1359</v>
       </c>
       <c r="G451" t="s">
-        <v>1747</v>
+        <v>1785</v>
       </c>
       <c r="H451" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17457,13 +17595,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1439</v>
+        <v>1452</v>
       </c>
       <c r="G452" t="s">
-        <v>1748</v>
+        <v>1786</v>
       </c>
       <c r="H452" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17483,13 +17621,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1440</v>
+        <v>1453</v>
       </c>
       <c r="G453" t="s">
-        <v>1749</v>
+        <v>1787</v>
       </c>
       <c r="H453" t="s">
-        <v>1762</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17509,13 +17647,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G454" t="s">
-        <v>1750</v>
+        <v>1788</v>
       </c>
       <c r="H454" t="s">
-        <v>1779</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17535,13 +17673,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1441</v>
+        <v>1454</v>
       </c>
       <c r="G455" t="s">
-        <v>1751</v>
+        <v>1789</v>
       </c>
       <c r="H455" t="s">
-        <v>1784</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17561,13 +17699,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G456" t="s">
-        <v>1658</v>
+        <v>1691</v>
       </c>
       <c r="H456" t="s">
-        <v>1782</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17587,13 +17725,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1403</v>
+        <v>1455</v>
       </c>
       <c r="G457" t="s">
-        <v>1752</v>
+        <v>1790</v>
       </c>
       <c r="H457" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17616,10 +17754,10 @@
         <v>1278</v>
       </c>
       <c r="G458" t="s">
-        <v>1753</v>
+        <v>1791</v>
       </c>
       <c r="H458" t="s">
-        <v>1793</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17642,10 +17780,10 @@
         <v>1294</v>
       </c>
       <c r="G459" t="s">
-        <v>1754</v>
+        <v>1792</v>
       </c>
       <c r="H459" t="s">
-        <v>1759</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17665,13 +17803,13 @@
         <v>1330</v>
       </c>
       <c r="F460" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G460" t="s">
-        <v>1755</v>
+        <v>1793</v>
       </c>
       <c r="H460" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17691,13 +17829,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1374</v>
+        <v>1413</v>
       </c>
       <c r="G461" t="s">
-        <v>1756</v>
+        <v>1794</v>
       </c>
       <c r="H461" t="s">
-        <v>1774</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17717,13 +17855,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1351</v>
+        <v>1389</v>
       </c>
       <c r="G462" t="s">
-        <v>1757</v>
+        <v>1795</v>
       </c>
       <c r="H462" t="s">
-        <v>1760</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17746,10 +17884,10 @@
         <v>1278</v>
       </c>
       <c r="G463" t="s">
-        <v>1758</v>
+        <v>1796</v>
       </c>
       <c r="H463" t="s">
-        <v>1763</v>
+        <v>1801</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/dp-partial-ner-elmo-money.xlsx
+++ b/Results/Categorization/dp-partial-ner-elmo-money.xlsx
@@ -4456,7 +4456,7 @@
     <t>menu|prix|fixe|penny</t>
   </si>
   <si>
-    <t>food|$6!-</t>
+    <t>food|$6</t>
   </si>
   <si>
     <t>somosas|chai|chole|dhosas|dhal</t>
@@ -4546,7 +4546,7 @@
     <t>pizza|way</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>lunch|reviews</t>
@@ -4624,7 +4624,7 @@
     <t>d'|maitre</t>
   </si>
   <si>
-    <t>|dessert|$8.00!-</t>
+    <t>|dessert|$8.00</t>
   </si>
   <si>
     <t>|drinks</t>
@@ -4774,13 +4774,13 @@
     <t>yellowtail</t>
   </si>
   <si>
-    <t>choices|food|$18!-</t>
+    <t>choices|food|$18</t>
   </si>
   <si>
     <t>price|food|service</t>
   </si>
   <si>
-    <t>price|$3-6!-</t>
+    <t>price|$3-6</t>
   </si>
   <si>
     <t>takeout|tupperware|quality</t>
@@ -4837,7 +4837,7 @@
     <t>|menu|restaurant</t>
   </si>
   <si>
-    <t>|wines|$70!-|$30!-</t>
+    <t>|wines|$70|$30</t>
   </si>
   <si>
     <t>service|joint|price|category</t>
@@ -4960,7 +4960,7 @@
     <t>prices</t>
   </si>
   <si>
-    <t>sandwiches|chips|side|$7!-</t>
+    <t>sandwiches|chips|side|$7</t>
   </si>
   <si>
     <t>experience|desk|atmosphere</t>
@@ -4978,7 +4978,7 @@
     <t>seafood|prices</t>
   </si>
   <si>
-    <t>lobster|sandwich|price|$24!-</t>
+    <t>lobster|sandwich|price|$24</t>
   </si>
   <si>
     <t>|occassion|sort|candle</t>
@@ -4990,7 +4990,7 @@
     <t>food|waiters</t>
   </si>
   <si>
-    <t>plate|cheese|bargain|delight|$10!-</t>
+    <t>plate|cheese|bargain|delight|$10</t>
   </si>
   <si>
     <t>|list|wine</t>
@@ -5080,7 +5080,7 @@
     <t>|sandwich|cheese|manager</t>
   </si>
   <si>
-    <t>music|isnt|100 dollar!-</t>
+    <t>music|isnt|100 dollar</t>
   </si>
   <si>
     <t>atmoshere|bit</t>
@@ -5092,13 +5092,13 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>staff|wait|part|beautification|fun|way|way|$*!-</t>
+    <t>staff|wait|part|beautification|fun|way|way|$*</t>
   </si>
   <si>
     <t>part|atmosphere|ls|bts</t>
   </si>
   <si>
-    <t>shanty|vanilla|setting|music|mmmm|$8.50!-</t>
+    <t>shanty|vanilla|setting|music|mmmm|$8.50</t>
   </si>
   <si>
     <t>taste|music|dj|lady</t>
@@ -5227,13 +5227,13 @@
     <t>food|decor|prices|prices</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
+    <t>sushi|$20</t>
   </si>
   <si>
     <t>scene|character|light|place</t>
   </si>
   <si>
-    <t>fish|chips|$15!-</t>
+    <t>fish|chips|$15</t>
   </si>
   <si>
     <t>restaurant|friend</t>
@@ -5242,7 +5242,7 @@
     <t>space|kind|alice|wonderland|setting</t>
   </si>
   <si>
-    <t>meal|$60!-</t>
+    <t>meal|$60</t>
   </si>
   <si>
     <t>|place|bit</t>
@@ -5254,16 +5254,16 @@
     <t>|dinner</t>
   </si>
   <si>
-    <t>dinner|feet|$400.00!-</t>
+    <t>dinner|feet|$400.00</t>
   </si>
   <si>
     <t>area|garden</t>
   </si>
   <si>
-    <t>guacamole|plate|$11!-</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>guacamole|plate|$11</t>
+  </si>
+  <si>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>view|river|nyc</t>
@@ -5305,7 +5305,7 @@
     <t>atmosphere|bit|scheme</t>
   </si>
   <si>
-    <t>service|price|dish|$10!-</t>
+    <t>service|price|dish|$10</t>
   </si>
   <si>
     <t>martinis</t>
@@ -5314,7 +5314,7 @@
     <t>dj|bunch|birthday|friends</t>
   </si>
   <si>
-    <t>dinner|wine|$500!-</t>
+    <t>dinner|wine|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5329,16 +5329,16 @@
     <t>environment|lot|guys|wives|escorts</t>
   </si>
   <si>
-    <t>|service|$500!-</t>
+    <t>|service|$500</t>
   </si>
   <si>
     <t>|diners</t>
   </si>
   <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>dinner|$55!-</t>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>dinner|$55</t>
   </si>
   <si>
     <t>show|food|wallets|experience|dancers|belly</t>
@@ -5353,10 +5353,10 @@
     <t>side|food</t>
   </si>
   <si>
-    <t>restaurant|feel|price|place|$25!-</t>
-  </si>
-  <si>
-    <t>food|$!-</t>
+    <t>restaurant|feel|price|place|$25</t>
+  </si>
+  <si>
+    <t>food|$</t>
   </si>
   <si>
     <t>buffet|lunch</t>
@@ -5365,7 +5365,7 @@
     <t>dinner|ideal</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
+    <t>stone|bowl|$2</t>
   </si>
   <si>
     <t>restaurant|city</t>
@@ -5374,19 +5374,19 @@
     <t>brasserie|opinion|restaurants|city</t>
   </si>
   <si>
-    <t>deal|party|$29!-</t>
+    <t>deal|party|$29</t>
   </si>
   <si>
     <t>company|date|point|price|brasserie</t>
   </si>
   <si>
-    <t>service|$500!-</t>
+    <t>service|$500</t>
   </si>
   <si>
     <t>meat|kimchi|sauces|salad|meal|service</t>
   </si>
   <si>
-    <t>bite|salmon|restaurants|salmon|$24!-</t>
+    <t>bite|salmon|restaurants|salmon|$24</t>
   </si>
   <si>
     <t>eggplant</t>
@@ -5395,7 +5395,7 @@
     <t>pricing</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>joint|dog|glance|bark</t>
